--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiahuaxu/GitHub/bondingcurves/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D74E93-829A-0A42-9BFD-C1E3472ABB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4354B-96C2-C24A-AC27-374C07F31DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
+    <sheet name="attacks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>DEX</t>
   </si>
@@ -169,6 +170,54 @@
   </si>
   <si>
     <t>a survey of ﻿vulnerabilities, attacks, and defenses of ﻿decentralized applications (DApps) running on top of the Ethereum blockchain</t>
+  </si>
+  <si>
+    <t>Attacks</t>
+  </si>
+  <si>
+    <t>Infrastructure-layer  attacks</t>
+  </si>
+  <si>
+    <t>Block  timestamp  manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transaction  sequence  manipulation</t>
+  </si>
+  <si>
+    <t>Application-layer attacks</t>
+  </si>
+  <si>
+    <t>Affected AMMs</t>
+  </si>
+  <si>
+    <t>Rug  pull</t>
+  </si>
+  <si>
+    <t>Uniswap \cite{﻿Coinfirm2021, ﻿Coinfirm2022}</t>
+  </si>
+  <si>
+    <t>Uranium Finance \cite{xxx}</t>
+  </si>
+  <si>
+    <t>Estimated loss</t>
+  </si>
+  <si>
+    <t>$50 million</t>
+  </si>
+  <si>
+    <t>Oracle attack</t>
+  </si>
+  <si>
+    <t>\cite{﻿Oosthoek2021, ﻿gudgeon2020}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniswap </t>
+  </si>
+  <si>
+    <t>Sushiswap</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -241,16 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +313,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,14 +636,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1736A125-551E-9245-AA4F-F348FEC249A4}">
   <dimension ref="C4:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -607,80 +659,80 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="3:17" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="3:17" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="b">
@@ -723,11 +775,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="b">
@@ -771,10 +823,10 @@
       </c>
     </row>
     <row r="8" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="b">
@@ -817,11 +869,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -864,11 +916,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -912,10 +964,10 @@
       </c>
     </row>
     <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="b">
@@ -958,11 +1010,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1005,11 +1057,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="2" t="b">
@@ -1052,11 +1104,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="2" t="b">
@@ -1099,11 +1151,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1146,11 +1198,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="2" t="b">
@@ -1193,11 +1245,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1240,11 +1292,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+    <row r="18" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="3" t="b">
@@ -1295,4 +1347,98 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiahuaxu/GitHub/bondingcurves/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4354B-96C2-C24A-AC27-374C07F31DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A6A53A-DB9F-4BC8-9325-285739B9A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -224,11 +224,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,8 +236,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -286,11 +293,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,12 +339,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,7 +364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -640,25 +666,25 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="11" t="s">
@@ -681,7 +707,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="3:17" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -728,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -775,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -822,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
@@ -869,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
@@ -916,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
@@ -963,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1057,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1245,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1292,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1345,7 +1371,9 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="I4:M4"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1354,84 +1382,114 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1439,6 +1497,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperPotato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A6A53A-DB9F-4BC8-9325-285739B9A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FF1874-3888-408D-ABFF-83C03C62DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>DEX</t>
   </si>
@@ -178,53 +178,284 @@
     <t>Infrastructure-layer  attacks</t>
   </si>
   <si>
-    <t>Block  timestamp  manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transaction  sequence  manipulation</t>
-  </si>
-  <si>
     <t>Application-layer attacks</t>
   </si>
   <si>
     <t>Affected AMMs</t>
   </si>
   <si>
+    <t>Estimated loss</t>
+  </si>
+  <si>
+    <t>$50 million</t>
+  </si>
+  <si>
+    <t>Block timestamp manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction sequence manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other infrastructure-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middleware-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reentrancy attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other middleware-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontrunning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backrunning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandwich attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100 ETH jackpot payout was stuck with several reasons including timestamp manipulations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6 million ether</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetix hack: 37M sETH stolen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bZx hack: $900k stolen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$100 million worth of loans were liquidated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Rug  pull</t>
-  </si>
-  <si>
-    <t>Uniswap \cite{﻿Coinfirm2021, ﻿Coinfirm2022}</t>
-  </si>
-  <si>
-    <t>Uranium Finance \cite{xxx}</t>
-  </si>
-  <si>
-    <t>Estimated loss</t>
-  </si>
-  <si>
-    <t>$50 million</t>
-  </si>
-  <si>
-    <t>Oracle attack</t>
-  </si>
-  <si>
-    <t>\cite{﻿Oosthoek2021, ﻿gudgeon2020}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniswap </t>
-  </si>
-  <si>
-    <t>Sushiswap</t>
-  </si>
-  <si>
-    <t>xx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>over $2 billion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$58 million</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a loss of $280 million to unsuspecting traders each month worldwide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvest Finance \cite{Redman2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum \cite{Redman2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compound \cite{Chong2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO \cite{Daian2016}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum \cite{CryptoGroundTeam2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum \cite{Shahda2019}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum \cite{Bahrynovska2017}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thodex \cite{Shaurya2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Finance \cite{Shaurya2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnubisDAO \cite{Shaurya2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Mikalauskas2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Dzyatkovskii2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrapped Ether \cite{Alchemist2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SushiSwap \cite{Jakub2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>predators make around $4,000 daily on sandwiching globally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>over $30 million</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.98879 WETH = $237,569.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> $50m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gained $830 million</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33MM USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\cite{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oosthoek2021, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gudgeon2020}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Xia2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, Angeris2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, 
+Eskandari2020, 
+Daian2019, 
+Angeris2021, 
+Zhou2021A2MM: Mitigating Frontrunning, Transaction Reordering and Consensus Instability in Decentralized Exchanges}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Züst2021, Dunkelman2010, Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\cite{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jiang2021, Davidson2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +478,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -308,11 +575,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -339,16 +644,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1736A125-551E-9245-AA4F-F348FEC249A4}">
   <dimension ref="C4:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1379,125 +1712,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.125" customWidth="1"/>
-    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="11" style="12"/>
+    <col min="2" max="2" width="26.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="D17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>55</v>
+      <c r="D19" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperPotato\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FF1874-3888-408D-ABFF-83C03C62DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB19F8F-9930-439E-97C4-1C6CA9347FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>DEX</t>
   </si>
@@ -230,18 +230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3.6 million ether</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthetix hack: 37M sETH stolen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bZx hack: $900k stolen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Oracle attack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,10 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>over $2 billion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,22 +270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DAO \cite{Daian2016}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum \cite{CryptoGroundTeam2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum \cite{Shahda2019}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum \cite{Bahrynovska2017}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Thodex \cite{Shaurya2021}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -339,10 +307,6 @@
   </si>
   <si>
     <t>56.98879 WETH = $237,569.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> $50m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -448,6 +412,58 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernMental \cite{Bahrynovska2017}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lendf.Me \cite{validnetwork2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$25m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bZx \cite{CryptoGroundTeam2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$900k stolen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin \cite{Khatri2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,137 ETH (worth about $3.3 million) and 2.25 million DAI (worth about $2.25 million).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grim Finance \cite{Buchvarov2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$30m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtoZ Markets \cite{Mandzikasvili2019}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 million synthetic Ether (sETH)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integral \cite{Foxley2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attracted $239 million</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,13 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,11 +667,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -677,6 +687,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,48 +1018,48 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.15234375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3828125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3828125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.15234375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="3:17" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1416,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1604,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1712,316 +1731,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="12"/>
-    <col min="2" max="2" width="26.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="49.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="81.5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="11"/>
+    <col min="2" max="2" width="24.84375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="15" t="s">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="124" x14ac:dyDescent="0.35">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="B19" s="16"/>
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="15" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="17" t="s">
+      <c r="F23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>90</v>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
+  <mergeCells count="14">
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D20:D22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB19F8F-9930-439E-97C4-1C6CA9347FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FCAB4F-6195-43A3-BB90-F2D467EB8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>DEX</t>
   </si>
@@ -191,131 +191,6 @@
   </si>
   <si>
     <t>Block timestamp manipulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction sequence manipulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other infrastructure-layer attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middleware-layer attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reentrancy attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other middleware-layer attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frontrunning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backrunning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sandwich attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100 ETH jackpot payout was stuck with several reasons including timestamp manipulations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$100 million worth of loans were liquidated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rug  pull</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>over $2 billion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$58 million</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a loss of $280 million to unsuspecting traders each month worldwide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harvest Finance \cite{Redman2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum \cite{Redman2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compound \cite{Chong2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thodex \cite{Shaurya2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium Finance \cite{Shaurya2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnubisDAO \cite{Shaurya2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Mikalauskas2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Dzyatkovskii2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wrapped Ether \cite{Alchemist2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SushiSwap \cite{Jakub2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>predators make around $4,000 daily on sandwiching globally</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>over $30 million</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.98879 WETH = $237,569.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gained $830 million</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>33MM USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -323,20 +198,190 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jiang2021, Davidson2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>GovernMental \cite{Bahrynovska2017}</t>
+  </si>
+  <si>
+    <t>1100 ETH jackpot payout was stuck with several reasons including timestamp manipulations</t>
+  </si>
+  <si>
+    <t>Transaction sequence manipulation</t>
+  </si>
+  <si>
+    <t>\cite{Han1996}</t>
+  </si>
+  <si>
+    <t>europarl.europa.eu cite\{Robby2018}</t>
+  </si>
+  <si>
+    <t>distributed denial-of-service (DDoS) attacks</t>
+  </si>
+  <si>
+    <t>\cit{Hui2017, Cheng2011, Rodrigues2019}</t>
+  </si>
+  <si>
+    <t>WEI Tech Exchange
+\cite{Greg LaBrie2018}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> loss of 119,756 coins. At the time of the break in, the loss was approximately $60 million. </t>
+  </si>
+  <si>
+    <t>blockchain denial-of-service (BDoS) attacks</t>
+  </si>
+  <si>
+    <t>\cit{Mirkin2020}</t>
+  </si>
+  <si>
+    <t>Bradley
+\cite{Law  2019}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 million bitcoin </t>
+  </si>
+  <si>
+    <t>network mining control attack</t>
+  </si>
+  <si>
+    <t>\cit{Zhou2021, Helmy2021, Eskandari2019}</t>
+  </si>
+  <si>
+    <t>Cointelegraph
+\cite{Mrie2019}</t>
+  </si>
+  <si>
+    <t>about 40k ETC</t>
+  </si>
+  <si>
+    <t>domain name server (DNS) hijacking</t>
+  </si>
+  <si>
+    <t>\cite{Dai2017, Patsakis2020, Aranjo2016}</t>
+  </si>
+  <si>
+    <t>CNN
+\cite{Josiah2017}</t>
+  </si>
+  <si>
+    <t>lost 17 percent of its assets</t>
+  </si>
+  <si>
+    <t>border gateway protocol (BGP) hijacking</t>
+  </si>
+  <si>
+    <t>\cite{Mastilak2020, MacDonald2009, Chakraborty2015}</t>
+  </si>
+  <si>
+    <t>The Cloudflare Blog
+\cite{Tom2019}</t>
+  </si>
+  <si>
+    <t>worst of the incident, of about 15% of our global traffic.</t>
+  </si>
+  <si>
+    <t>Middleware-layer attacks</t>
+  </si>
+  <si>
+    <t>Reentrancy attack</t>
+  </si>
+  <si>
+    <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
+  </si>
+  <si>
+    <t>Lendf.Me \cite{validnetwork2020}</t>
+  </si>
+  <si>
+    <t>$25m</t>
+  </si>
+  <si>
+    <t>bZx \cite{CryptoGroundTeam2020}</t>
+  </si>
+  <si>
+    <t>$900k stolen</t>
+  </si>
+  <si>
+    <t>Origin \cite{Khatri2020}</t>
+  </si>
+  <si>
+    <t>7,137 ETH (worth about $3.3 million) and 2.25 million DAI (worth about $2.25 million).</t>
+  </si>
+  <si>
+    <t>Grim Finance \cite{Buchvarov2021}</t>
+  </si>
+  <si>
+    <t>$30m</t>
+  </si>
+  <si>
+    <t>middleware-layer attacks: 
+replay attack</t>
+  </si>
+  <si>
+    <t>\cite{khazraei2017, zhou2021, chiou2013}</t>
+  </si>
+  <si>
+    <t>coindesk
+\cite{Alyssa2016}</t>
+  </si>
+  <si>
+    <t>40,000 ETC</t>
+  </si>
+  <si>
+    <t>middleware-layer attacks:
+exception mishandling</t>
+  </si>
+  <si>
+    <t>\cite{luu2016, popescu2020, mense2018}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middleware-layer attacks: integer under-flow/overflow attacks </t>
+  </si>
+  <si>
+    <t>\cite{Praitheesha2019, Moona2021}</t>
+  </si>
+  <si>
+    <t>Medium
+\cite{HaloBlock2018}</t>
+  </si>
+  <si>
+    <t>could cause a catastrophic loss for the crypto holder’s account</t>
+  </si>
+  <si>
+    <t>Oracle attack</t>
+  </si>
+  <si>
+    <r>
+      <t>\cite{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>﻿</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,38 +389,71 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>﻿</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>gudgeon2020}</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compound \cite{Chong2020}</t>
+  </si>
+  <si>
+    <t>$100 million worth of loans were liquidated</t>
+  </si>
+  <si>
+    <t>Ethereum \cite{Redman2020}</t>
+  </si>
+  <si>
+    <t>over $30 million</t>
+  </si>
+  <si>
+    <t>AtoZ Markets \cite{Mandzikasvili2019}</t>
+  </si>
+  <si>
+    <t>37 million synthetic Ether (sETH)</t>
+  </si>
+  <si>
+    <t>Harvest Finance \cite{Redman2020}</t>
+  </si>
+  <si>
+    <t>33MM USD</t>
+  </si>
+  <si>
+    <t>Rug  pull</t>
   </si>
   <si>
     <t>\cite{Xia2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, Angeris2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Finance \cite{Shaurya2021}</t>
+  </si>
+  <si>
+    <t>Thodex \cite{Shaurya2021}</t>
+  </si>
+  <si>
+    <t>over $2 billion</t>
+  </si>
+  <si>
+    <t>AnubisDAO \cite{Shaurya2021}</t>
+  </si>
+  <si>
+    <t>$58 million</t>
+  </si>
+  <si>
+    <t>Frontrunning</t>
   </si>
   <si>
     <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, 
@@ -383,88 +461,61 @@
 Daian2019, 
 Angeris2021, 
 Zhou2021A2MM: Mitigating Frontrunning, Transaction Reordering and Consensus Instability in Decentralized Exchanges}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Mikalauskas2021}</t>
+  </si>
+  <si>
+    <t>a loss of $280 million to unsuspecting traders each month worldwide</t>
+  </si>
+  <si>
+    <t>Backrunning</t>
+  </si>
+  <si>
+    <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, Angeris2021}</t>
+  </si>
+  <si>
+    <t>Coindesk
+\cite{Daniel2020}</t>
+  </si>
+  <si>
+    <t>moved than 807,000 ETC</t>
+  </si>
+  <si>
+    <t>Sandwich attacks</t>
   </si>
   <si>
     <t>\cite{Züst2021, Dunkelman2010, Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\cite{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jiang2021, Davidson2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GovernMental \cite{Bahrynovska2017}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lendf.Me \cite{validnetwork2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$25m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bZx \cite{CryptoGroundTeam2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$900k stolen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Origin \cite{Khatri2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,137 ETH (worth about $3.3 million) and 2.25 million DAI (worth about $2.25 million).</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grim Finance \cite{Buchvarov2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$30m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtoZ Markets \cite{Mandzikasvili2019}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37 million synthetic Ether (sETH)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Dzyatkovskii2021}</t>
+  </si>
+  <si>
+    <t>predators make around $4,000 daily on sandwiching globally</t>
+  </si>
+  <si>
+    <t>Wrapped Ether \cite{Alchemist2021}</t>
+  </si>
+  <si>
+    <t>56.98879 WETH = $237,569.16</t>
+  </si>
+  <si>
+    <t>Vampire attack</t>
+  </si>
+  <si>
+    <t>\cite{Lo2020, mr2016, gsssietwdetection}</t>
+  </si>
+  <si>
+    <t>SushiSwap \cite{Jakub2020}</t>
+  </si>
+  <si>
+    <t>gained $830 million</t>
   </si>
   <si>
     <t>Integral \cite{Foxley2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>attracted $239 million</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -503,32 +554,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -633,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,44 +705,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,48 +1060,48 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.84375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.15234375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3828125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="3:17" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1482,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1623,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1670,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1731,317 +1773,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="24.84375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.07421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
-      <c r="C4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="16"/>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="F5" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
+    </row>
+    <row r="12" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="13" t="s">
+      <c r="E12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D17" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="124" x14ac:dyDescent="0.35">
-      <c r="B18" s="16"/>
-      <c r="C18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="B19" s="16"/>
-      <c r="C19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>102</v>
+    <row r="22" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="243" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="81" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FCAB4F-6195-43A3-BB90-F2D467EB8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEC2FA-AFD4-43BD-8CB5-751412ED1C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>DEX</t>
   </si>
@@ -200,6 +200,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Jiang2021, Davidson2020</t>
@@ -208,6 +209,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -215,154 +217,217 @@
     </r>
   </si>
   <si>
-    <t>GovernMental \cite{Bahrynovska2017}</t>
-  </si>
-  <si>
-    <t>1100 ETH jackpot payout was stuck with several reasons including timestamp manipulations</t>
+    <t xml:space="preserve">4 million bitcoin </t>
+  </si>
+  <si>
+    <t>about 40k ETC</t>
+  </si>
+  <si>
+    <t>lost 17 percent of its assets</t>
+  </si>
+  <si>
+    <t>Middleware-layer attacks</t>
+  </si>
+  <si>
+    <t>Reentrancy attack</t>
+  </si>
+  <si>
+    <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
+  </si>
+  <si>
+    <t>$25m</t>
+  </si>
+  <si>
+    <t>bZx \cite{CryptoGroundTeam2020}</t>
+  </si>
+  <si>
+    <t>$900k stolen</t>
+  </si>
+  <si>
+    <t>7,137 ETH (worth about $3.3 million) and 2.25 million DAI (worth about $2.25 million).</t>
+  </si>
+  <si>
+    <t>Grim Finance \cite{Buchvarov2021}</t>
+  </si>
+  <si>
+    <t>$30m</t>
+  </si>
+  <si>
+    <t>Oracle attack</t>
+  </si>
+  <si>
+    <t>Compound \cite{Chong2020}</t>
+  </si>
+  <si>
+    <t>$100 million worth of loans were liquidated</t>
+  </si>
+  <si>
+    <t>over $30 million</t>
+  </si>
+  <si>
+    <t>AtoZ Markets \cite{Mandzikasvili2019}</t>
+  </si>
+  <si>
+    <t>37 million synthetic Ether (sETH)</t>
+  </si>
+  <si>
+    <t>Harvest Finance \cite{Redman2020}</t>
+  </si>
+  <si>
+    <t>33MM USD</t>
+  </si>
+  <si>
+    <t>Rug  pull</t>
+  </si>
+  <si>
+    <t>over $2 billion</t>
+  </si>
+  <si>
+    <t>$58 million</t>
+  </si>
+  <si>
+    <t>Frontrunning</t>
+  </si>
+  <si>
+    <t>Backrunning</t>
+  </si>
+  <si>
+    <t>Sandwich attacks</t>
+  </si>
+  <si>
+    <t>Vampire attack</t>
+  </si>
+  <si>
+    <t>SushiSwap \cite{Jakub2020}</t>
+  </si>
+  <si>
+    <t>gained $830 million</t>
+  </si>
+  <si>
+    <t>attracted $239 million</t>
   </si>
   <si>
     <t>Transaction sequence manipulation</t>
-  </si>
-  <si>
-    <t>\cite{Han1996}</t>
-  </si>
-  <si>
-    <t>europarl.europa.eu cite\{Robby2018}</t>
-  </si>
-  <si>
-    <t>distributed denial-of-service (DDoS) attacks</t>
-  </si>
-  <si>
-    <t>\cit{Hui2017, Cheng2011, Rodrigues2019}</t>
-  </si>
-  <si>
-    <t>WEI Tech Exchange
-\cite{Greg LaBrie2018}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> loss of 119,756 coins. At the time of the break in, the loss was approximately $60 million. </t>
-  </si>
-  <si>
-    <t>blockchain denial-of-service (BDoS) attacks</t>
-  </si>
-  <si>
-    <t>\cit{Mirkin2020}</t>
-  </si>
-  <si>
-    <t>Bradley
-\cite{Law  2019}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 million bitcoin </t>
-  </si>
-  <si>
-    <t>network mining control attack</t>
-  </si>
-  <si>
-    <t>\cit{Zhou2021, Helmy2021, Eskandari2019}</t>
-  </si>
-  <si>
-    <t>Cointelegraph
-\cite{Mrie2019}</t>
-  </si>
-  <si>
-    <t>about 40k ETC</t>
-  </si>
-  <si>
-    <t>domain name server (DNS) hijacking</t>
-  </si>
-  <si>
-    <t>\cite{Dai2017, Patsakis2020, Aranjo2016}</t>
-  </si>
-  <si>
-    <t>CNN
-\cite{Josiah2017}</t>
-  </si>
-  <si>
-    <t>lost 17 percent of its assets</t>
-  </si>
-  <si>
-    <t>border gateway protocol (BGP) hijacking</t>
-  </si>
-  <si>
-    <t>\cite{Mastilak2020, MacDonald2009, Chakraborty2015}</t>
-  </si>
-  <si>
-    <t>The Cloudflare Blog
-\cite{Tom2019}</t>
-  </si>
-  <si>
-    <t>worst of the incident, of about 15% of our global traffic.</t>
-  </si>
-  <si>
-    <t>Middleware-layer attacks</t>
-  </si>
-  <si>
-    <t>Reentrancy attack</t>
-  </si>
-  <si>
-    <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Houben2018}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed denial-of-service (DDoS) attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Hui2017, Cheng2011, Rodrigues2019}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeversiFi \cite{Greg2018, Foltýn2017, Phillips2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitfinex loss of 119,756 coins. At the time of the break in, the loss was approximately $60 million. DeversiFi, which spawned out of Bitfinex—was also affected by the attack.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blockchain denial-of-service (BDoS) attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Mirkin2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitGo \cite{Law3602019}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network mining control attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Zhou2021A2MM, Helmy2021, Eskandari2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate.io \cite{Huillet2019}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain name server (DNS) hijacking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Dai2017, Patsakis2020, Aranjo2019}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EtherDelta \cite{Wilmoth2017}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Border gateway protocol (BGP) hijacking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Mastilak2020, MacDonald2009, Chakraborty2015Security}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lendf.Me \cite{validnetwork2020}</t>
-  </si>
-  <si>
-    <t>$25m</t>
-  </si>
-  <si>
-    <t>bZx \cite{CryptoGroundTeam2020}</t>
-  </si>
-  <si>
-    <t>$900k stolen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Origin \cite{Khatri2020}</t>
-  </si>
-  <si>
-    <t>7,137 ETH (worth about $3.3 million) and 2.25 million DAI (worth about $2.25 million).</t>
-  </si>
-  <si>
-    <t>Grim Finance \cite{Buchvarov2021}</t>
-  </si>
-  <si>
-    <t>$30m</t>
-  </si>
-  <si>
-    <t>middleware-layer attacks: 
-replay attack</t>
-  </si>
-  <si>
-    <t>\cite{khazraei2017, zhou2021, chiou2013}</t>
-  </si>
-  <si>
-    <t>coindesk
-\cite{Alyssa2016}</t>
-  </si>
-  <si>
-    <t>40,000 ETC</t>
-  </si>
-  <si>
-    <t>middleware-layer attacks:
-exception mishandling</t>
-  </si>
-  <si>
-    <t>\cite{luu2016, popescu2020, mense2018}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middleware-layer attacks: integer under-flow/overflow attacks </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replay attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\cite{khazraei2017,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zhou2021A2MM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Chiou2013}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception mishandling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{luu2016making, Popescu, Mense2018}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer under-flow/overflow attacks </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>\cite{Praitheesha2019, Moona2021}</t>
-  </si>
-  <si>
-    <t>Medium
-\cite{HaloBlock2018}</t>
-  </si>
-  <si>
-    <t>could cause a catastrophic loss for the crypto holder’s account</t>
-  </si>
-  <si>
-    <t>Oracle attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -373,7 +438,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>﻿</t>
     </r>
@@ -382,6 +447,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -392,7 +458,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>﻿</t>
     </r>
@@ -401,121 +467,61 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>gudgeon2020}</t>
     </r>
-  </si>
-  <si>
-    <t>Compound \cite{Chong2020}</t>
-  </si>
-  <si>
-    <t>$100 million worth of loans were liquidated</t>
-  </si>
-  <si>
-    <t>Ethereum \cite{Redman2020}</t>
-  </si>
-  <si>
-    <t>over $30 million</t>
-  </si>
-  <si>
-    <t>AtoZ Markets \cite{Mandzikasvili2019}</t>
-  </si>
-  <si>
-    <t>37 million synthetic Ether (sETH)</t>
-  </si>
-  <si>
-    <t>Harvest Finance \cite{Redman2020}</t>
-  </si>
-  <si>
-    <t>33MM USD</t>
-  </si>
-  <si>
-    <t>Rug  pull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve \cite{Redman2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>\cite{Xia2021}</t>
-  </si>
-  <si>
-    <t>Uranium Finance \cite{Shaurya2021}</t>
-  </si>
-  <si>
-    <t>Thodex \cite{Shaurya2021}</t>
-  </si>
-  <si>
-    <t>over $2 billion</t>
-  </si>
-  <si>
-    <t>AnubisDAO \cite{Shaurya2021}</t>
-  </si>
-  <si>
-    <t>$58 million</t>
-  </si>
-  <si>
-    <t>Frontrunning</t>
-  </si>
-  <si>
-    <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, 
-Eskandari2020, 
-Daian2019, 
-Angeris2021, 
-Zhou2021A2MM: Mitigating Frontrunning, Transaction Reordering and Consensus Instability in Decentralized Exchanges}</t>
-  </si>
-  <si>
-    <t>\cite{Mikalauskas2021}</t>
-  </si>
-  <si>
-    <t>a loss of $280 million to unsuspecting traders each month worldwide</t>
-  </si>
-  <si>
-    <t>Backrunning</t>
-  </si>
-  <si>
-    <t>\cite{Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, Angeris2021}</t>
-  </si>
-  <si>
-    <t>Coindesk
-\cite{Daniel2020}</t>
-  </si>
-  <si>
-    <t>moved than 807,000 ETC</t>
-  </si>
-  <si>
-    <t>Sandwich attacks</t>
-  </si>
-  <si>
-    <t>\cite{Züst2021, Dunkelman2010, Zhou2021High-Frequency Trading on Decentralized On-Chain Exchanges, }</t>
-  </si>
-  <si>
-    <t>\cite{Dzyatkovskii2021}</t>
-  </si>
-  <si>
-    <t>predators make around $4,000 daily on sandwiching globally</t>
-  </si>
-  <si>
-    <t>Wrapped Ether \cite{Alchemist2021}</t>
-  </si>
-  <si>
-    <t>56.98879 WETH = $237,569.16</t>
-  </si>
-  <si>
-    <t>Vampire attack</t>
-  </si>
-  <si>
-    <t>\cite{Lo2020, mr2016, gsssietwdetection}</t>
-  </si>
-  <si>
-    <t>SushiSwap \cite{Jakub2020}</t>
-  </si>
-  <si>
-    <t>gained $830 million</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Finance \cite{Malwa2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thodex \cite{Malwa2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnubisDAO \cite{Malwa2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Zhou2021High-Frequency, Eskandari2020, Daian2019, Angeris2021, Zhou2021A2MM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a loss of $280 million to unsuspecting traders each month worldwide \cite{Mikalauskas2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Zhou2021High-Frequency, Angeris2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Züst2021, Dunkelman2010, Zhou2021High-Frequency}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>predators make around $4,000 daily on sandwiching globally \cite{Dzyatkovskii2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Lo2020UniswapExchange, Dangare2016}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Integral \cite{Foxley2021}</t>
-  </si>
-  <si>
-    <t>attracted $239 million</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -557,25 +563,28 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -586,7 +595,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -623,64 +632,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -708,36 +665,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1773,418 +1741,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="34.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="C4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E10" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="15" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="15" t="s">
+    <row r="12" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="15" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="15" t="s">
+    </row>
+    <row r="14" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
+      <c r="D17" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="F17" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>113</v>
+      <c r="F22" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="243" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="15" t="s">
+    <row r="25" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="81" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>129</v>
+      <c r="C27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>135</v>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B17:B29"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiahuaxu/GitHub/bondingcurves/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEC2FA-AFD4-43BD-8CB5-751412ED1C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109F1790-9AE1-BD48-A1EA-27C24E640817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
     <sheet name="attacks" sheetId="2" r:id="rId2"/>
+    <sheet name="AMMprotocols" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,8 +35,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F266C8A2-D118-284E-B6FC-DBB4CE6BEEA2}</author>
+    <author>tc={8FEFD333-10DF-E743-9752-CFC05D11E325}</author>
+    <author>tc={645C4158-2567-DD4B-A149-A2DC276E67F5}</author>
+    <author>tc={3BFD043E-7E3B-3249-A7C3-EEBA99361266}</author>
+    <author>tc={2F7C9FDE-CAD7-3945-A0AE-E7E45033B1F1}</author>
+    <author>tc={7C07A7B0-6E52-4F43-909D-826D6D2BF894}</author>
+  </authors>
+  <commentList>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{F266C8A2-D118-284E-B6FC-DBB4CE6BEEA2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is actually a way to protect LPs, so is 'part of' the next column</t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="1" shapeId="0" xr:uid="{8FEFD333-10DF-E743-9752-CFC05D11E325}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure</t>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="2" shapeId="0" xr:uid="{645C4158-2567-DD4B-A149-A2DC276E67F5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure</t>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="3" shapeId="0" xr:uid="{3BFD043E-7E3B-3249-A7C3-EEBA99361266}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure</t>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="4" shapeId="0" xr:uid="{2F7C9FDE-CAD7-3945-A0AE-E7E45033B1F1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure</t>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="5" shapeId="0" xr:uid="{7C07A7B0-6E52-4F43-909D-826D6D2BF894}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Can look at date of contract creation https://etherscan.io/tx/0x750f6632f7884defd40b79be8174bbb44de9ef21ca4172a249d7a4fe10b45e8e</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t>DEX</t>
   </si>
@@ -208,7 +272,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -393,7 +457,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -404,7 +468,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -446,7 +510,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -466,7 +530,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -523,16 +587,265 @@
     <t>Integral \cite{Foxley2021}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>Financial derivative</t>
+  </si>
+  <si>
+    <t>APWine</t>
+  </si>
+  <si>
+    <t>Prediction market</t>
+  </si>
+  <si>
+    <t>Augur</t>
+  </si>
+  <si>
+    <t>EulerBeats</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>Pods Finance</t>
+  </si>
+  <si>
+    <t>Stablecoin</t>
+  </si>
+  <si>
+    <t>GyroScope</t>
+  </si>
+  <si>
+    <t>Gnosis</t>
+  </si>
+  <si>
+    <t>Yield space</t>
+  </si>
+  <si>
+    <t>Notional finance</t>
+  </si>
+  <si>
+    <t>DeFi embedded with AMM</t>
+  </si>
+  <si>
+    <t>QuipuSwap</t>
+  </si>
+  <si>
+    <t>Tezos</t>
+  </si>
+  <si>
+    <t>dynamic swap fee</t>
+  </si>
+  <si>
+    <t>multi-asset</t>
+  </si>
+  <si>
+    <t>Pure AMM</t>
+  </si>
+  <si>
+    <t>Kyber2021whitepaper</t>
+  </si>
+  <si>
+    <t>Kyber 3.0</t>
+  </si>
+  <si>
+    <t>asset-pair</t>
+  </si>
+  <si>
+    <t>Andersson2020</t>
+  </si>
+  <si>
+    <t>mStable</t>
+  </si>
+  <si>
+    <t>mooniswap2020whitepaper</t>
+  </si>
+  <si>
+    <t>Mooniswap</t>
+  </si>
+  <si>
+    <t>Polkadot</t>
+  </si>
+  <si>
+    <t>HydraDX</t>
+  </si>
+  <si>
+    <t>Not live</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>TrueSwap</t>
+  </si>
+  <si>
+    <t>Solana</t>
+  </si>
+  <si>
+    <t>StableSwap</t>
+  </si>
+  <si>
+    <t>Vampire Attack on Uniswap v2 (dale2020sushiswapvampire)</t>
+  </si>
+  <si>
+    <t>sushi2020</t>
+  </si>
+  <si>
+    <t>SushiSwap</t>
+  </si>
+  <si>
+    <t>Ethereum, EOS</t>
+  </si>
+  <si>
+    <t>divergence loss insurance</t>
+  </si>
+  <si>
+    <t>Bancor2020</t>
+  </si>
+  <si>
+    <t>Bancor V2.1</t>
+  </si>
+  <si>
+    <t>Bancor V2</t>
+  </si>
+  <si>
+    <t>https://etherscan.io/tx/0x750f6632f7884defd40b79be8174bbb44de9ef21ca4172a249d7a4fe10b45e8e</t>
+  </si>
+  <si>
+    <t>Hertzog2018</t>
+  </si>
+  <si>
+    <t>Bancor V1</t>
+  </si>
+  <si>
+    <t>Ethereum, BSC</t>
+  </si>
+  <si>
+    <t>single-asset</t>
+  </si>
+  <si>
+    <t>dodo2020whitepaper</t>
+  </si>
+  <si>
+    <t>DODO</t>
+  </si>
+  <si>
+    <t>Harvest Attack (cao2021flashot), Value.Defi Attack (cao2021flashot)</t>
+  </si>
+  <si>
+    <t>Egorov2019</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>Balancer V2</t>
+  </si>
+  <si>
+    <t>Balancer Attack (1inch2020balancerAttack)</t>
+  </si>
+  <si>
+    <t>martinelli2019whitepaper</t>
+  </si>
+  <si>
+    <t>Balancer V1</t>
+  </si>
+  <si>
+    <t>adams2021v3core</t>
+  </si>
+  <si>
+    <t>Uniswap V3</t>
+  </si>
+  <si>
+    <t>Harvest Attack (cao2021flashot), Cheesebank Attack (cao2021flashot), Value.Defi Attack (cao2021flashot), Warp Finance Attack  (cao2021flashot)</t>
+  </si>
+  <si>
+    <t>Core2020</t>
+  </si>
+  <si>
+    <t>Uniswap V2</t>
+  </si>
+  <si>
+    <t>bZx Oracle Attack (cao2021flashot)</t>
+  </si>
+  <si>
+    <t>Adams2018</t>
+  </si>
+  <si>
+    <t>Uniswap V1</t>
+  </si>
+  <si>
+    <t>miannet launch</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Front-running</t>
+  </si>
+  <si>
+    <t>liquidity provider protection</t>
+  </si>
+  <si>
+    <t>divergenve loss compensation</t>
+  </si>
+  <si>
+    <t>time decay</t>
+  </si>
+  <si>
+    <t>capital concentration</t>
+  </si>
+  <si>
+    <t>oracle price component</t>
+  </si>
+  <si>
+    <t>constant-product component</t>
+  </si>
+  <si>
+    <t>constant-sum component</t>
+  </si>
+  <si>
+    <t>pool structure</t>
+  </si>
+  <si>
+    <t>Protocol application</t>
+  </si>
+  <si>
+    <t>cite</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Associated attacks</t>
+  </si>
+  <si>
+    <t>AMM add-on features</t>
+  </si>
+  <si>
+    <t>conservation function components</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>\mathcal{A}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -540,13 +853,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,21 +868,21 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -586,13 +899,44 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -637,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -662,12 +1006,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -677,20 +1015,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -701,18 +1027,526 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,8 +1559,41 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Xu, Jiahua" id="{036DB0A5-9A37-1742-A3F7-59B74AD43F60}" userId="S::ucacjxu@ucl.ac.uk::7a6344da-4ad5-4eee-bc02-f3951f0e55d7" providerId="AD"/>
+  <person displayName="simon.cousaert" id="{1AE7033E-D555-3941-9328-6407986EA49C}" userId="S::simon.cousaert_outlook.com#ext#@liveuclac.onmicrosoft.com::3509a644-7812-48a3-9060-60422aa578e3" providerId="AD"/>
+</personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:R34" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B5:R34" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="Name" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{A48EA57B-872C-0A4C-B462-4CBBD75B8F26}" name="Protocol application" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum component" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{16DFB123-F0A1-B945-91D1-888A04AB30F1}" name="constant-product component" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time decay" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{88AC795C-9D6D-CF43-8328-5C1F0576795C}" name="dynamic swap fee" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A8B1B674-1AAC-E648-AFD5-07F354189A33}" name="liquidity provider protection" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{485B62E1-248A-1245-A71C-01A2CF6D0D11}" name="Oracle attack" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{D180EB55-80FA-1D46-A3D1-0125A6DE89C4}" name="Vampire attack" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{303058AD-6354-D64F-9947-CD6296FA1F66}" name="Front-running" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="miannet launch" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1020,6 +1887,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L5" dT="2021-04-13T13:56:53.59" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{F266C8A2-D118-284E-B6FC-DBB4CE6BEEA2}">
+    <text>This is actually a way to protect LPs, so is 'part of' the next column</text>
+  </threadedComment>
+  <threadedComment ref="J10" dT="2021-04-13T12:39:36.33" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{8FEFD333-10DF-E743-9752-CFC05D11E325}">
+    <text>Not sure</text>
+  </threadedComment>
+  <threadedComment ref="M10" dT="2021-04-13T12:39:27.83" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{645C4158-2567-DD4B-A149-A2DC276E67F5}">
+    <text>Not sure</text>
+  </threadedComment>
+  <threadedComment ref="J11" dT="2021-04-13T12:39:36.33" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{3BFD043E-7E3B-3249-A7C3-EEBA99361266}">
+    <text>Not sure</text>
+  </threadedComment>
+  <threadedComment ref="M11" dT="2021-04-13T12:39:27.83" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{2F7C9FDE-CAD7-3945-A0AE-E7E45033B1F1}">
+    <text>Not sure</text>
+  </threadedComment>
+  <threadedComment ref="R14" dT="2021-04-13T16:50:49.16" personId="{036DB0A5-9A37-1742-A3F7-59B74AD43F60}" id="{7C07A7B0-6E52-4F43-909D-826D6D2BF894}">
+    <text>Can look at date of contract creation https://etherscan.io/tx/0x750f6632f7884defd40b79be8174bbb44de9ef21ca4172a249d7a4fe10b45e8e</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1736A125-551E-9245-AA4F-F348FEC249A4}">
   <dimension ref="C4:Q18"/>
@@ -1028,48 +1918,48 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="26.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" s="1" customFormat="1">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="3:17" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="3:17" s="5" customFormat="1" ht="34">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" ht="34">
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="51">
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="34">
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="34">
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="51">
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1351,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="81" customHeight="1">
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" ht="34">
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1445,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="51">
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1492,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" ht="51">
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1539,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" ht="34">
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" ht="34">
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1633,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" ht="34">
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1680,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:17" ht="34">
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1743,380 +2633,1718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
     <col min="2" max="2" width="38.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="126" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="127" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:6" ht="22">
+      <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:6" ht="22">
+      <c r="B3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="22">
+      <c r="B4" s="22"/>
+      <c r="C4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:6" ht="44">
+      <c r="B5" s="22"/>
+      <c r="C5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="2:6" ht="22">
+      <c r="B6" s="22"/>
+      <c r="C6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="2:6" ht="22">
+      <c r="B7" s="22"/>
+      <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="2:6" ht="22">
+      <c r="B8" s="22"/>
+      <c r="C8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="2:6" ht="22">
+      <c r="B9" s="23"/>
+      <c r="C9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="2:6" ht="22">
+      <c r="B10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="14" t="s">
+    <row r="11" spans="2:6" ht="22">
+      <c r="B11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14" t="s">
+    <row r="12" spans="2:6" ht="22">
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="14" t="s">
+    <row r="13" spans="2:6" ht="22">
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+    <row r="14" spans="2:6" ht="22">
+      <c r="B14" s="22"/>
+      <c r="C14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" ht="22">
+      <c r="B15" s="22"/>
+      <c r="C15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6" ht="22">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" ht="22">
+      <c r="B17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="14" t="s">
+    <row r="18" spans="2:6" ht="22">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14" t="s">
+    <row r="19" spans="2:6" ht="22">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14" t="s">
+    <row r="20" spans="2:6" ht="22">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="17" t="s">
+    <row r="21" spans="2:6" ht="22">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="14" t="s">
+    <row r="22" spans="2:6" ht="22">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14" t="s">
+    <row r="23" spans="2:6" ht="22">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14" t="s">
+    <row r="24" spans="2:6" ht="22">
+      <c r="B24" s="22"/>
+      <c r="C24" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
+    <row r="25" spans="2:6" ht="22">
+      <c r="B25" s="22"/>
+      <c r="C25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" ht="22">
+      <c r="B26" s="22"/>
+      <c r="C26" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="17" t="s">
+    <row r="27" spans="2:6" ht="22">
+      <c r="B27" s="22"/>
+      <c r="C27" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22" t="s">
+    <row r="28" spans="2:6" ht="22">
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="16" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="B17:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" customWidth="1"/>
+    <col min="15" max="17" width="26.5" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20">
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20">
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="F4" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="28"/>
+    </row>
+    <row r="7" spans="2:20" ht="17">
+      <c r="B7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="31">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="85">
+      <c r="B8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="31">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="34">
+      <c r="B9" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="31">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="34">
+      <c r="B10" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="31">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17">
+      <c r="B11" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="51">
+      <c r="B12" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="31">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="34">
+      <c r="B13" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" s="31">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="17">
+      <c r="B14" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="R14" s="31">
+        <v>42896</v>
+      </c>
+      <c r="T14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17">
+      <c r="B15" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="R15" s="31">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="17">
+      <c r="B16" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" s="31">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="34">
+      <c r="B17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="31">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="17">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="17">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="34">
+      <c r="B21" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R21" s="31">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="34">
+      <c r="B22" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R22" s="31">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="34">
+      <c r="B23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R23" s="28"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R25" s="28"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R26" s="28"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="28"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R29" s="28"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R30" s="28"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" s="28"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O9:R9 M6:Q6 F6:L7 M7:R8 M9 N18:R18 M10:R17 K25:K34 F19:J34 L19:R34 F8:J17 L8:L17 K17:K22 K8:K15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{339F8281-92ED-9E41-9F4A-9D5FC20D1765}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:J18 L18:M18">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0E631E8-6425-034D-856C-909CD002EDC7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{339F8281-92ED-9E41-9F4A-9D5FC20D1765}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O9:R9 M6:Q6 F6:L7 M7:R8 M9 N18:R18 M10:R17 K25:K34 F19:J34 L19:R34 F8:J17 L8:L17 K17:K22 K8:K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0E631E8-6425-034D-856C-909CD002EDC7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18:J18 L18:M18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9597D88E-3D49-4650-9356-3A2DAE0CF853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7452831-DB9A-440A-BDB9-B05014B77780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <author>tc={8FEFD333-10DF-E743-9752-CFC05D11E325}</author>
     <author>tc={3BFD043E-7E3B-3249-A7C3-EEBA99361266}</author>
     <author>tc={52E6CBD8-9295-4F2D-B7B9-E9A676BFD9BD}</author>
+    <author>tc={019DCA89-3A6A-4F77-B259-D3E93227D326}</author>
   </authors>
   <commentList>
     <comment ref="I9" authorId="0" shapeId="0" xr:uid="{8FEFD333-10DF-E743-9752-CFC05D11E325}">
@@ -67,12 +68,20 @@
     Not sure</t>
       </text>
     </comment>
+    <comment ref="I23" authorId="3" shapeId="0" xr:uid="{019DCA89-3A6A-4F77-B259-D3E93227D326}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Not sure</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="210">
   <si>
     <t>DEX</t>
   </si>
@@ -251,18 +260,12 @@
     </r>
   </si>
   <si>
-    <t>Middleware-layer attacks</t>
-  </si>
-  <si>
     <t>Reentrancy attack</t>
   </si>
   <si>
     <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
   </si>
   <si>
-    <t>Grim Finance \cite{Buchvarov2021}</t>
-  </si>
-  <si>
     <t>Oracle attack</t>
   </si>
   <si>
@@ -281,9 +284,6 @@
     <t>Vampire attack</t>
   </si>
   <si>
-    <t>SushiSwap \cite{Jakub2020}</t>
-  </si>
-  <si>
     <t>Transaction sequence manipulation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -332,19 +332,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EtherDelta \cite{Wilmoth2017}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Border gateway protocol (BGP) hijacking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>\cite{Mastilak2020, MacDonald2009, Chakraborty2015Security}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lendf.Me \cite{validnetwork2020}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -469,18 +461,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>predators make around $4,000 daily on sandwiching globally \cite{Dzyatkovskii2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\cite{Lo2020UniswapExchange, Dangare2016}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Integral \cite{Foxley2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -722,94 +706,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{Foxley2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Malwa2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Uranium Finance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{Mandzikasvili2019}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grim Finance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Buchvarov2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Khatri2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bZx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{CryptoGroundTeam2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lendf.Me</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{validnetwork2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EtherDelta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Wilmoth2017}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Gate.io</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{Huillet2019}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DeversiFi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{Greg2018, Foltýn2017, Phillips2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.27m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.25m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bZx \cite{CryptoGroundTeam2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.90m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.55m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -822,26 +734,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>37million synthetic Ether (sETH), the true dollar value is difficult to calculate at this time given the relative illiquidity of sETH on secondary markets.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a loss of $280m to unsuspecting traders each month worldwide \cite{Mikalauskas2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gained $830m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gained $239m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pool structure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -870,10 +766,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>time decay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>divergenve loss compensation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -882,26 +774,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7/2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9/2018</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ethereum, BSC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BSC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>04/2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mainnet launch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -910,47 +790,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lending market</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Origin Protocol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthetix Exchange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthetix Exchange \cite{Mandzikasvili2019}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnubisDAO \cite{Malwa2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnubisDAO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Malwa2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum,  KCC</t>
+    <t>Various \cite{Mikalauskas2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>280m each month worldwide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writepaper for mechanism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middleton2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateio2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middleware-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap \cite{Jakub2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mt. Gox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>615m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mt. Gox \cite{CrystalAnalyticsTeam}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalAnalyticsTeam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium.finance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntegralProtocol2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap \cite{JOng2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>830m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4300m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap \cite{Foxley2021Vampire}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>239m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwap \cite{QuickSwap2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwapOfficial2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">predators make around $4,000 daily on sandwiching globally </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various \cite{Dzyatkovskii2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demised now</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1029,8 +977,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1007,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1172,9 +1133,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,8 +1154,21 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1208,13 +1179,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1223,12 +1188,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2085,20 +2092,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L44" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="B5:L44" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L40" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="B5:L40" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time decay" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2410,6 +2417,9 @@
   <threadedComment ref="I17" dT="2021-04-13T12:39:36.33" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{52E6CBD8-9295-4F2D-B7B9-E9A676BFD9BD}">
     <text>Not sure</text>
   </threadedComment>
+  <threadedComment ref="I23" dT="2021-04-13T12:39:36.33" personId="{1AE7033E-D555-3941-9328-6407986EA49C}" id="{019DCA89-3A6A-4F77-B259-D3E93227D326}">
+    <text>Not sure</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2442,25 +2452,25 @@
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
@@ -3134,27 +3144,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="38.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.4609375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="118.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3176,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -3179,311 +3189,282 @@
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B6" s="41"/>
+      <c r="C6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B8" s="41"/>
+      <c r="C8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B9" s="42"/>
+      <c r="C9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B8" s="37"/>
-      <c r="C8" s="12" t="s">
+      <c r="D9" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B9" s="38"/>
-      <c r="C9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="D10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>187</v>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B11" s="37"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>189</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B12" s="37"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="12" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B13" s="41"/>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B14" s="42"/>
+      <c r="C14" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B13" s="37"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="12" t="s">
+      <c r="D14" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B14" s="37"/>
-      <c r="C14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="37"/>
-      <c r="C15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="D17" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B16" s="37"/>
-      <c r="C16" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="12" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="40" x14ac:dyDescent="0.4">
-      <c r="B19" s="37"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B19" s="39"/>
+      <c r="C19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>193</v>
+        <v>182</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B20" s="37"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B21" s="37"/>
-      <c r="C21" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B22" s="37"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>221</v>
+      <c r="E22" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B23" s="37"/>
-      <c r="C23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
-        <v>195</v>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B24" s="37"/>
-      <c r="C24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B25" s="37"/>
-      <c r="C25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B26" s="37"/>
-      <c r="C26" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B27" s="38"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>197</v>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3493,10 +3474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3505,1134 +3486,1073 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="15.3828125" customWidth="1"/>
     <col min="5" max="5" width="18.921875" customWidth="1"/>
-    <col min="6" max="6" width="14.53515625" customWidth="1"/>
+    <col min="6" max="6" width="16.3046875" customWidth="1"/>
     <col min="7" max="7" width="27.07421875" customWidth="1"/>
     <col min="8" max="8" width="24.921875" customWidth="1"/>
     <col min="9" max="9" width="22.15234375" customWidth="1"/>
-    <col min="10" max="10" width="22.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.07421875" customWidth="1"/>
     <col min="11" max="11" width="15.765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="17.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="E4" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42" t="s">
+      <c r="C16" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="L20" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="21" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="K21" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D28" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26" t="s">
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L25" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" s="28"/>
+      <c r="B36" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L37" s="23"/>
+      <c r="B37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L38" s="23"/>
+      <c r="B38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="23"/>
+      <c r="B39" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L40" s="23"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="23"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="23"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B44" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>96</v>
+      <c r="B40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4641,11 +4561,11 @@
     <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J35:J44 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 F34:I44 K34:L44 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
-    <cfRule type="cellIs" dxfId="36" priority="133" operator="equal">
+  <conditionalFormatting sqref="F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
+    <cfRule type="cellIs" dxfId="39" priority="199" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4657,7 +4577,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4668,11 +4588,740 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21 E34">
-    <cfRule type="cellIs" dxfId="35" priority="124" operator="equal">
+  <conditionalFormatting sqref="L6:L7">
+    <cfRule type="cellIs" dxfId="38" priority="184" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="185">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0BD01D0-AC3F-445F-A55C-51ACFE3AD712}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L13">
+    <cfRule type="cellIs" dxfId="37" priority="178" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="179">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C061374B-B3FA-4407-A93A-CD3102B7CFF4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="36" priority="172" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="173">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35287CC9-D276-4D5F-AE1C-329DAB94F4DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="35" priority="166" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="167">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{30E9D0F6-8C72-4B47-BFA3-ED2475EC5D0F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="34" priority="163" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="164">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71DCD241-803E-4059-9F74-851EFB49A2BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L17">
+    <cfRule type="cellIs" dxfId="33" priority="244" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="245">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71CE5792-ABEC-4581-99F5-BFD194CCCA8D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="32" priority="160" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="161">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{251F1A2E-6776-42FD-9700-0BA882BD98DD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="31" priority="151" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="152">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C92976A8-35EB-42CA-94CC-AE819C7ACFE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="cellIs" dxfId="30" priority="133" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C2EF88E-9E27-426C-9ADC-9D5E6AD87A04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="29" priority="112" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="113">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{50017BED-3BA8-4F66-BE56-1A1778A1254D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:L22 K23 J24:K25 K26:K28">
+    <cfRule type="cellIs" dxfId="28" priority="709" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="710">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B4895D4-5A74-452B-873E-79C19B28409F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="711">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="27" priority="97" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5910E6A0-AC90-4A2C-80D8-A4FA36883F35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="26" priority="94" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59F8F646-A6D7-4920-978E-5D1909749F6D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L28">
+    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07071DC6-1FC5-42DA-9570-81FBCE3D8FED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="24" priority="88" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC6A2E14-E48B-4359-8B3D-D85FA02A2AF4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{23C44E1F-A565-402C-B094-B21B0836C457}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="22" priority="61" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8531F6DD-BCD4-405F-AA37-B2038A6065C2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{649961F8-AC39-4312-B312-6F44BC8AF800}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{156508A8-60DB-4276-9F22-080916034B9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{494097B6-D793-4D80-8D57-769A885A8577}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85A6A2B6-6B80-405C-B32D-65014C5D24FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{53E9278B-7A36-413D-890B-9BCD83AAE782}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="16" priority="43" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E0B3F085-CFA6-4402-B80B-2C9FB32E3C10}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="15" priority="1081" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="1082">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33FFED54-2E0E-43E7-BA3C-CD5D49D51048}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="1083">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="14" priority="1147" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="1148">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBB575E2-4052-4C89-9B47-89D1B0708828}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="1149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:I30 K29:L30">
+    <cfRule type="cellIs" dxfId="13" priority="40" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04399199-1E4D-44AA-A5BE-E2DD7E53B213}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{356C5E14-D6D0-4245-9236-9A1C1CC21CC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="cellIs" dxfId="11" priority="1186" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="1187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4684,7 +5333,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="1188">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4695,11 +5344,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L7">
-    <cfRule type="cellIs" dxfId="34" priority="118" operator="equal">
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4707,11 +5356,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C0BD01D0-AC3F-445F-A55C-51ACFE3AD712}</x14:id>
+          <x14:id>{41509452-42B9-45C3-BF29-35FF4AFAB1F2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4722,11 +5371,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13">
-    <cfRule type="cellIs" dxfId="33" priority="112" operator="equal">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4734,11 +5383,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C061374B-B3FA-4407-A93A-CD3102B7CFF4}</x14:id>
+          <x14:id>{49D48E7D-B8E5-4D17-8472-FCE655AE0951}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4749,11 +5398,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="32" priority="106" operator="equal">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4761,11 +5410,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35287CC9-D276-4D5F-AE1C-329DAB94F4DB}</x14:id>
+          <x14:id>{52653BE9-347E-4D02-A594-08C85648A7C7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4776,11 +5425,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="31" priority="100" operator="equal">
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4788,11 +5437,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30E9D0F6-8C72-4B47-BFA3-ED2475EC5D0F}</x14:id>
+          <x14:id>{F3568975-B16D-4DD0-82F4-C34F1F3AFF1B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4803,11 +5452,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="30" priority="97" operator="equal">
+  <conditionalFormatting sqref="E26:I26">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4815,11 +5464,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71DCD241-803E-4059-9F74-851EFB49A2BA}</x14:id>
+          <x14:id>{FDC066D6-4C43-4952-BA49-E286FBDCD9D4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4830,11 +5479,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L17">
-    <cfRule type="cellIs" dxfId="29" priority="178" operator="equal">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4842,11 +5491,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71CE5792-ABEC-4581-99F5-BFD194CCCA8D}</x14:id>
+          <x14:id>{23C19861-6738-480C-8204-A4A64EB375B7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4857,11 +5506,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="28" priority="94" operator="equal">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4869,11 +5518,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{251F1A2E-6776-42FD-9700-0BA882BD98DD}</x14:id>
+          <x14:id>{320CAB72-AE31-432D-865C-798320A940AC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4884,11 +5533,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="27" priority="91" operator="equal">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4896,11 +5545,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0DEA9C5E-B705-4235-B1EC-C46C6D9BFEB2}</x14:id>
+          <x14:id>{D1E7F878-F2D3-4D7B-A93F-E50AE7B86942}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4911,11 +5560,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="26" priority="88" operator="equal">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4923,11 +5572,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F865C28-E826-4474-B7B0-B49BA4900D9A}</x14:id>
+          <x14:id>{447AF9AE-026B-4509-A68D-797748C08ED7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4938,11 +5587,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="25" priority="85" operator="equal">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="86">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4950,11 +5599,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C92976A8-35EB-42CA-94CC-AE819C7ACFE8}</x14:id>
+          <x14:id>{7BF310A9-8358-4BAC-AE34-10E975E7072B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4965,11 +5614,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="24" priority="76" operator="equal">
+  <conditionalFormatting sqref="E28:J28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4977,655 +5626,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E26D846D-E07A-4022-A2C1-C08671F77D62}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="23" priority="73" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{907577AD-15C6-46CE-AC83-DB2E6E7E48CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="22" priority="70" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{377E51F8-506F-4B44-AEEF-11D7DCD777FD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="21" priority="67" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C2EF88E-9E27-426C-9ADC-9D5E6AD87A04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="20" priority="64" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0FEB5B46-E7E3-40E4-858B-B5CFBEF6B703}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A4BC5DEA-F6CC-4FC6-B129-7DC816D286BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{381BB4AE-3D31-40CC-8061-5152E204EDD9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50017BED-3BA8-4F66-BE56-1A1778A1254D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:K33 J24:K24 J25:L25 F25:F27 F29 H31:K31 F32 H24:H25 H26:L26 H32 H27:K29 H30 F22:L23 J30:K30 J32:K32">
-    <cfRule type="cellIs" dxfId="16" priority="643" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="644">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9B4895D4-5A74-452B-873E-79C19B28409F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="645">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6F5B5638-85AC-4499-84DB-1DE93A409F13}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G28">
-    <cfRule type="cellIs" dxfId="14" priority="37" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EBB575E2-4052-4C89-9B47-89D1B0708828}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5910E6A0-AC90-4A2C-80D8-A4FA36883F35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59F8F646-A6D7-4920-978E-5D1909749F6D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07071DC6-1FC5-42DA-9570-81FBCE3D8FED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC6A2E14-E48B-4359-8B3D-D85FA02A2AF4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4B115480-8CA2-457F-B6E1-8D2B2CDF266D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84F681B3-9C43-47D4-9918-B59DE0062715}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A64DAAC4-003C-4636-9D22-0F478BAF2037}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61323F2F-CAA7-4AA9-ABA6-A9CBE925E09C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E6FDEA7-A7EE-4D3D-95FB-E19F3299889B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D5E66467-AE00-460D-9BF6-84D31E6AAF2C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="3" priority="727" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="728">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A043E4C6-E7FE-40CD-8D2E-46D2397310E0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="729">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L26">
-    <cfRule type="cellIs" dxfId="2" priority="772" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="773">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33FFED54-2E0E-43E7-BA3C-CD5D49D51048}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="774">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G32">
-    <cfRule type="cellIs" dxfId="1" priority="778" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="779">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D656211B-82B1-4CFE-98F3-2079C5447007}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="780">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D6ED8923-7576-434F-B1C5-AA472D64C4AF}</x14:id>
+          <x14:id>{B0B110AC-8D5B-44CC-9913-5C830280943E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5660,20 +5661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J35:J44 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 F34:I44 K34:L44 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{44E5A1D5-E0C5-4014-B16C-4ABBAB0706D2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E20:E21 E34</xm:sqref>
+          <xm:sqref>F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C0BD01D0-AC3F-445F-A55C-51ACFE3AD712}">
@@ -5767,32 +5755,6 @@
           <xm:sqref>E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0DEA9C5E-B705-4235-B1EC-C46C6D9BFEB2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7F865C28-E826-4474-B7B0-B49BA4900D9A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C92976A8-35EB-42CA-94CC-AE819C7ACFE8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -5806,45 +5768,6 @@
           <xm:sqref>I24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E26D846D-E07A-4022-A2C1-C08671F77D62}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{907577AD-15C6-46CE-AC83-DB2E6E7E48CE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{377E51F8-506F-4B44-AEEF-11D7DCD777FD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C2EF88E-9E27-426C-9ADC-9D5E6AD87A04}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -5855,46 +5778,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0FEB5B46-E7E3-40E4-858B-B5CFBEF6B703}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A4BC5DEA-F6CC-4FC6-B129-7DC816D286BF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{381BB4AE-3D31-40CC-8061-5152E204EDD9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F31</xm:sqref>
+          <xm:sqref>L25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{50017BED-3BA8-4F66-BE56-1A1778A1254D}">
@@ -5907,7 +5791,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L31</xm:sqref>
+          <xm:sqref>L26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B4895D4-5A74-452B-873E-79C19B28409F}">
@@ -5920,33 +5804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33:K33 J24:K24 J25:L25 F25:F27 F29 H31:K31 F32 H24:H25 H26:L26 H32 H27:K29 H30 F22:L23 J30:K30 J32:K32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6F5B5638-85AC-4499-84DB-1DE93A409F13}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EBB575E2-4052-4C89-9B47-89D1B0708828}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G25:G28</xm:sqref>
+          <xm:sqref>F22:L22 K23 J24:K25 K26:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5910E6A0-AC90-4A2C-80D8-A4FA36883F35}">
@@ -5959,7 +5817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F33</xm:sqref>
+          <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59F8F646-A6D7-4920-978E-5D1909749F6D}">
@@ -5972,7 +5830,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E33</xm:sqref>
+          <xm:sqref>E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07071DC6-1FC5-42DA-9570-81FBCE3D8FED}">
@@ -5985,7 +5843,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L33</xm:sqref>
+          <xm:sqref>L27:L28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC6A2E14-E48B-4359-8B3D-D85FA02A2AF4}">
@@ -6001,7 +5859,189 @@
           <xm:sqref>E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4B115480-8CA2-457F-B6E1-8D2B2CDF266D}">
+          <x14:cfRule type="dataBar" id="{23C44E1F-A565-402C-B094-B21B0836C457}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8531F6DD-BCD4-405F-AA37-B2038A6065C2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{649961F8-AC39-4312-B312-6F44BC8AF800}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{156508A8-60DB-4276-9F22-080916034B9A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{494097B6-D793-4D80-8D57-769A885A8577}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85A6A2B6-6B80-405C-B32D-65014C5D24FE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{53E9278B-7A36-413D-890B-9BCD83AAE782}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0B3F085-CFA6-4402-B80B-2C9FB32E3C10}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33FFED54-2E0E-43E7-BA3C-CD5D49D51048}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBB575E2-4052-4C89-9B47-89D1B0708828}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04399199-1E4D-44AA-A5BE-E2DD7E53B213}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F29:I30 K29:L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{356C5E14-D6D0-4245-9236-9A1C1CC21CC4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29:E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{44E5A1D5-E0C5-4014-B16C-4ABBAB0706D2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E20:E21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41509452-42B9-45C3-BF29-35FF4AFAB1F2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49D48E7D-B8E5-4D17-8472-FCE655AE0951}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6014,7 +6054,7 @@
           <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84F681B3-9C43-47D4-9918-B59DE0062715}">
+          <x14:cfRule type="dataBar" id="{52653BE9-347E-4D02-A594-08C85648A7C7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6024,10 +6064,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E28</xm:sqref>
+          <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A64DAAC4-003C-4636-9D22-0F478BAF2037}">
+          <x14:cfRule type="dataBar" id="{F3568975-B16D-4DD0-82F4-C34F1F3AFF1B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6037,10 +6077,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I30</xm:sqref>
+          <xm:sqref>I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61323F2F-CAA7-4AA9-ABA6-A9CBE925E09C}">
+          <x14:cfRule type="dataBar" id="{FDC066D6-4C43-4952-BA49-E286FBDCD9D4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6050,10 +6090,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30</xm:sqref>
+          <xm:sqref>E26:I26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0E6FDEA7-A7EE-4D3D-95FB-E19F3299889B}">
+          <x14:cfRule type="dataBar" id="{23C19861-6738-480C-8204-A4A64EB375B7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6063,10 +6103,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E30</xm:sqref>
+          <xm:sqref>J26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D5E66467-AE00-460D-9BF6-84D31E6AAF2C}">
+          <x14:cfRule type="dataBar" id="{320CAB72-AE31-432D-865C-798320A940AC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6076,10 +6116,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L30</xm:sqref>
+          <xm:sqref>J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A043E4C6-E7FE-40CD-8D2E-46D2397310E0}">
+          <x14:cfRule type="dataBar" id="{D1E7F878-F2D3-4D7B-A93F-E50AE7B86942}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6089,10 +6129,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I32</xm:sqref>
+          <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33FFED54-2E0E-43E7-BA3C-CD5D49D51048}">
+          <x14:cfRule type="dataBar" id="{447AF9AE-026B-4509-A68D-797748C08ED7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6102,10 +6142,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L24:L26</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D656211B-82B1-4CFE-98F3-2079C5447007}">
+          <x14:cfRule type="dataBar" id="{7BF310A9-8358-4BAC-AE34-10E975E7072B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6115,10 +6155,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G29:G32</xm:sqref>
+          <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D6ED8923-7576-434F-B1C5-AA472D64C4AF}">
+          <x14:cfRule type="dataBar" id="{B0B110AC-8D5B-44CC-9913-5C830280943E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6128,7 +6168,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L32</xm:sqref>
+          <xm:sqref>E28:J28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7452831-DB9A-440A-BDB9-B05014B77780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDDA74A-307C-4E32-A260-D36354836E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="195">
   <si>
     <t>DEX</t>
   </si>
@@ -233,33 +233,6 @@
     <t>Estimated loss</t>
   </si>
   <si>
-    <t>Block timestamp manipulation</t>
-  </si>
-  <si>
-    <r>
-      <t>\cite{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jiang2021, Davidson2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>Reentrancy attack</t>
   </si>
   <si>
@@ -275,23 +248,12 @@
     <t>Frontrunning</t>
   </si>
   <si>
-    <t>Backrunning</t>
-  </si>
-  <si>
     <t>Sandwich attacks</t>
   </si>
   <si>
     <t>Vampire attack</t>
   </si>
   <si>
-    <t>Transaction sequence manipulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Houben2018}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Distributed denial-of-service (DDoS) attacks</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,14 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Blockchain denial-of-service (BDoS) attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Mirkin2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Network mining control attack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -324,70 +278,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Domain name server (DNS) hijacking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Dai2017, Patsakis2020, Aranjo2019}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Border gateway protocol (BGP) hijacking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Mastilak2020, MacDonald2009, Chakraborty2015Security}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Origin \cite{Khatri2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replay attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\cite{khazraei2017,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zhou2021A2MM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Chiou2013}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception mishandling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{luu2016making, Popescu, Mense2018}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer under-flow/overflow attacks </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Praitheesha2019, Moona2021}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,10 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{Zhou2021High-Frequency, Angeris2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\cite{Züst2021, Dunkelman2010, Zhou2021High-Frequency}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -818,22 +705,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Uniswap \cite{Jakub2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mt. Gox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>615m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mt. Gox \cite{CrystalAnalyticsTeam}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Origin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -854,10 +725,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>830m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4300m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -898,7 +765,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>demised now</t>
+    <t>1000m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap \cite{Wong2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V1 \cite{ConsenSys2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DODO V2 \cite{Behnke2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DODO  \cite{Behnke2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SushiSwap \cite{Keoun2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -954,12 +853,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -976,13 +869,6 @@
       <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1087,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1112,13 +998,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,47 +1032,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,26 +1053,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2092,8 +1966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L40" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="B5:L40" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L39" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="B5:L39" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="49"/>
@@ -2452,25 +2326,25 @@
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
@@ -3144,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3160,311 +3034,238 @@
     <col min="6" max="6" width="118.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1"/>
+    </row>
     <row r="2" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B4" s="38"/>
+      <c r="C4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B4" s="41"/>
-      <c r="C4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B5" s="41"/>
-      <c r="C5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B6" s="38"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B6" s="41"/>
-      <c r="C6" s="12" t="s">
+      <c r="E7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B7" s="41"/>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>164</v>
+      <c r="F7" s="42" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.35">
       <c r="B8" s="41"/>
-      <c r="C8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B10" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>165</v>
+      <c r="D10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20" x14ac:dyDescent="0.35">
       <c r="B11" s="41"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="20" x14ac:dyDescent="0.35">
       <c r="B12" s="41"/>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="20" x14ac:dyDescent="0.35">
       <c r="B13" s="41"/>
-      <c r="C13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B14" s="42"/>
-      <c r="C14" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>166</v>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>203</v>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>201</v>
+      <c r="B17" s="45"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="9">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3474,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3497,1062 +3298,1044 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="45" t="s">
+      <c r="D12" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="26"/>
+      <c r="B24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="D24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="D25" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="D26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="D27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="25" t="s">
+      <c r="L27" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="22" t="s">
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>206</v>
+      <c r="C28" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" s="46"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="25"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="25"/>
-    </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
+      <c r="B31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="27"/>
+      <c r="B32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L33" s="22"/>
+      <c r="B33" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L34" s="22"/>
+      <c r="B34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L35" s="22"/>
+      <c r="B35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="15"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L36" s="22"/>
+      <c r="B36" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" s="22"/>
+      <c r="B37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="15"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L38" s="22"/>
+      <c r="B38" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>89</v>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4561,7 +4344,7 @@
     <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
+  <conditionalFormatting sqref="F30:L39 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
     <cfRule type="cellIs" dxfId="39" priority="199" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -5263,11 +5046,335 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:I30 K29:L30">
-    <cfRule type="cellIs" dxfId="13" priority="40" operator="equal">
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="cellIs" dxfId="13" priority="1186" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="1187">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{44E5A1D5-E0C5-4014-B16C-4ABBAB0706D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="1188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41509452-42B9-45C3-BF29-35FF4AFAB1F2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49D48E7D-B8E5-4D17-8472-FCE655AE0951}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52653BE9-347E-4D02-A594-08C85648A7C7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3568975-B16D-4DD0-82F4-C34F1F3AFF1B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:I26">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDC066D6-4C43-4952-BA49-E286FBDCD9D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{23C19861-6738-480C-8204-A4A64EB375B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{320CAB72-AE31-432D-865C-798320A940AC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D1E7F878-F2D3-4D7B-A93F-E50AE7B86942}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{447AF9AE-026B-4509-A68D-797748C08ED7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BF310A9-8358-4BAC-AE34-10E975E7072B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:J28">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0B110AC-8D5B-44CC-9913-5C830280943E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:I29 K29:L29">
+    <cfRule type="cellIs" dxfId="1" priority="1219" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="1220">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5279,7 +5386,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="1221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5290,11 +5397,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="0" priority="1225" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="1226">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5306,331 +5413,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="cellIs" dxfId="11" priority="1186" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="1187">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{44E5A1D5-E0C5-4014-B16C-4ABBAB0706D2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="1188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41509452-42B9-45C3-BF29-35FF4AFAB1F2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49D48E7D-B8E5-4D17-8472-FCE655AE0951}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52653BE9-347E-4D02-A594-08C85648A7C7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3568975-B16D-4DD0-82F4-C34F1F3AFF1B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:I26">
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDC066D6-4C43-4952-BA49-E286FBDCD9D4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23C19861-6738-480C-8204-A4A64EB375B7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{320CAB72-AE31-432D-865C-798320A940AC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D1E7F878-F2D3-4D7B-A93F-E50AE7B86942}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{447AF9AE-026B-4509-A68D-797748C08ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7BF310A9-8358-4BAC-AE34-10E975E7072B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:J28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0B110AC-8D5B-44CC-9913-5C830280943E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="1227">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5661,7 +5444,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19</xm:sqref>
+          <xm:sqref>F30:L39 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C0BD01D0-AC3F-445F-A55C-51ACFE3AD712}">
@@ -5989,32 +5772,6 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04399199-1E4D-44AA-A5BE-E2DD7E53B213}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F29:I30 K29:L30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{356C5E14-D6D0-4245-9236-9A1C1CC21CC4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E29:E30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{44E5A1D5-E0C5-4014-B16C-4ABBAB0706D2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -6170,6 +5927,32 @@
           </x14:cfRule>
           <xm:sqref>E28:J28</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04399199-1E4D-44AA-A5BE-E2DD7E53B213}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F29:I29 K29:L29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{356C5E14-D6D0-4245-9236-9A1C1CC21CC4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDDA74A-307C-4E32-A260-D36354836E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E23DE4-EC2E-42CD-A0A4-9D456EFD730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="199">
   <si>
     <t>DEX</t>
   </si>
@@ -798,6 +798,22 @@
   </si>
   <si>
     <t>25m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burgerswap \cite{Behnke2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burgerswap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burgerswapwhitepaper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1035,30 +1051,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1074,12 +1066,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1966,20 +1995,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L39" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="B5:L39" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L40" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="B5:L40" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="43"/>
-    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2326,25 +2355,25 @@
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
@@ -3018,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3038,10 +3067,10 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3082,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -3070,7 +3099,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="31" t="s">
         <v>60</v>
       </c>
@@ -3085,13 +3114,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="28" t="s">
@@ -3102,9 +3131,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B6" s="38"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="31" t="s">
         <v>188</v>
       </c>
@@ -3113,7 +3142,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -3122,150 +3151,159 @@
       <c r="D7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B8" s="41"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F10" s="34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+    <row r="11" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F11" s="34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42" t="s">
+    <row r="12" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F12" s="34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+    <row r="13" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E13" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F13" s="34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42" t="s">
+    <row r="14" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F14" s="34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
+    <row r="15" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E15" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F15" s="34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="41"/>
-      <c r="C15" s="43" t="s">
+    <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B16" s="33"/>
+      <c r="C16" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D16" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E16" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F16" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42" t="s">
+    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B17" s="33"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F17" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B17" s="45"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="31" t="s">
+    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F18" s="31" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3275,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3318,16 +3356,16 @@
       <c r="C4" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="39" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
@@ -4150,72 +4188,88 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
+      <c r="B29" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -4223,7 +4277,9 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15" t="s">
         <v>72</v>
@@ -4232,21 +4288,15 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15" t="s">
         <v>72</v>
@@ -4255,15 +4305,21 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="G35" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
         <v>72</v>
@@ -4272,7 +4328,7 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -4289,7 +4345,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -4306,7 +4362,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -4316,12 +4372,14 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="L38" s="15"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -4331,10 +4389,25 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="L40" s="18" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4344,11 +4417,11 @@
     <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F30:L39 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
-    <cfRule type="cellIs" dxfId="39" priority="199" operator="equal">
+  <conditionalFormatting sqref="F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
+    <cfRule type="cellIs" dxfId="40" priority="202" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="200">
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4360,7 +4433,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="201">
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4372,10 +4445,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7">
-    <cfRule type="cellIs" dxfId="38" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="187" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="185">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4387,7 +4460,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="186">
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4399,10 +4472,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L13">
-    <cfRule type="cellIs" dxfId="37" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="181" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4414,7 +4487,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4426,10 +4499,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="36" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="175" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4441,7 +4514,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4453,10 +4526,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="35" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="169" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4468,7 +4541,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4480,10 +4553,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="34" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="166" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="164">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4495,7 +4568,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4507,10 +4580,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L17">
-    <cfRule type="cellIs" dxfId="33" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="247" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="245">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4522,7 +4595,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="246">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4534,10 +4607,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="32" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="163" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4549,7 +4622,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4561,10 +4634,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="31" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="154" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4576,7 +4649,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4588,10 +4661,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="30" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="136" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4603,7 +4676,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4615,10 +4688,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="29" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="115" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4630,7 +4703,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4641,11 +4714,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:L22 K23 J24:K25 K26:K28">
-    <cfRule type="cellIs" dxfId="28" priority="709" operator="equal">
+  <conditionalFormatting sqref="F22:L22 K23 J24:K25 K26:K29">
+    <cfRule type="cellIs" dxfId="29" priority="712" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="710">
+    <cfRule type="dataBar" priority="713">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4657,7 +4730,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="711">
+    <cfRule type="colorScale" priority="714">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4669,10 +4742,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="27" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="100" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4684,7 +4757,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4696,10 +4769,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="26" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="97" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4711,7 +4784,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4722,11 +4795,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L28">
-    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="26" priority="94" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4738,7 +4811,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4750,10 +4823,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="24" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4765,7 +4838,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4777,10 +4850,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="67" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4792,7 +4865,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4804,10 +4877,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="22" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4819,7 +4892,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4831,10 +4904,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="61" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4846,7 +4919,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4858,10 +4931,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4873,7 +4946,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4885,10 +4958,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4900,7 +4973,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4912,10 +4985,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4927,7 +5000,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4939,10 +5012,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4954,7 +5027,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4966,10 +5039,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="16" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4981,7 +5054,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4993,10 +5066,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="15" priority="1081" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1084" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1082">
+    <cfRule type="dataBar" priority="1085">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5008,7 +5081,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1083">
+    <cfRule type="colorScale" priority="1086">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5020,10 +5093,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="14" priority="1147" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1150" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1148">
+    <cfRule type="dataBar" priority="1151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5035,7 +5108,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1149">
+    <cfRule type="colorScale" priority="1152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5047,10 +5120,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="cellIs" dxfId="13" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1189" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1187">
+    <cfRule type="dataBar" priority="1190">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5062,7 +5135,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1188">
+    <cfRule type="colorScale" priority="1191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5074,10 +5147,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5089,7 +5162,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5101,10 +5174,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5116,7 +5189,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5128,10 +5201,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5143,7 +5216,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5155,10 +5228,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5170,7 +5243,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5182,10 +5255,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:I26">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5197,7 +5270,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5209,10 +5282,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5224,7 +5297,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5236,10 +5309,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5251,7 +5324,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5263,10 +5336,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5278,7 +5351,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5290,10 +5363,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5305,7 +5378,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5317,10 +5390,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5332,7 +5405,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5344,10 +5417,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:J28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5359,7 +5432,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5370,11 +5443,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:I29 K29:L29">
-    <cfRule type="cellIs" dxfId="1" priority="1219" operator="equal">
+  <conditionalFormatting sqref="F30:I30 K30:L30">
+    <cfRule type="cellIs" dxfId="2" priority="1222" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1220">
+    <cfRule type="dataBar" priority="1223">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5386,7 +5459,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1221">
+    <cfRule type="colorScale" priority="1224">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5397,11 +5470,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="0" priority="1225" operator="equal">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="1" priority="1228" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1226">
+    <cfRule type="dataBar" priority="1229">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5413,7 +5486,34 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1227">
+    <cfRule type="colorScale" priority="1230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:J29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5C803A5-A6E8-413C-A8A6-64BDCB9DF296}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5444,7 +5544,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30:L39 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19</xm:sqref>
+          <xm:sqref>F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C0BD01D0-AC3F-445F-A55C-51ACFE3AD712}">
@@ -5587,7 +5687,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22:L22 K23 J24:K25 K26:K28</xm:sqref>
+          <xm:sqref>F22:L22 K23 J24:K25 K26:K29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5910E6A0-AC90-4A2C-80D8-A4FA36883F35}">
@@ -5626,7 +5726,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L27:L28</xm:sqref>
+          <xm:sqref>L27:L29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC6A2E14-E48B-4359-8B3D-D85FA02A2AF4}">
@@ -5938,7 +6038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29:I29 K29:L29</xm:sqref>
+          <xm:sqref>F30:I30 K30:L30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{356C5E14-D6D0-4245-9236-9A1C1CC21CC4}">
@@ -5951,7 +6051,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5C803A5-A6E8-413C-A8A6-64BDCB9DF296}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29:J29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E23DE4-EC2E-42CD-A0A4-9D456EFD730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F1EDC0-2A2B-4A19-94C3-62C506EDE5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
@@ -989,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1052,19 +1052,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,7 +1082,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,416 +1093,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="54">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1975,6 +1559,416 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1995,20 +1989,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L40" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L40" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B5:L40" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2355,25 +2349,25 @@
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
@@ -3049,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3067,10 +3061,10 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3076,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -3099,7 +3093,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B4" s="40"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="31" t="s">
         <v>60</v>
       </c>
@@ -3114,13 +3108,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="28" t="s">
@@ -3131,9 +3125,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="31" t="s">
         <v>188</v>
       </c>
@@ -3145,149 +3139,149 @@
       <c r="B7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="34" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="35" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="34" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="34" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.35">
       <c r="B18" s="37"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="31" t="s">
         <v>177</v>
       </c>
@@ -3296,7 +3290,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C16:C18"/>
@@ -3304,6 +3298,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3315,7 +3316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3356,16 +3357,16 @@
       <c r="C4" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
@@ -4418,7 +4419,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F31:L40 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
-    <cfRule type="cellIs" dxfId="40" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="202" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="203">
@@ -4445,7 +4446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7">
-    <cfRule type="cellIs" dxfId="39" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="187" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="188">
@@ -4472,7 +4473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L13">
-    <cfRule type="cellIs" dxfId="38" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="181" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="182">
@@ -4499,7 +4500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="37" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="175" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="176">
@@ -4526,7 +4527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="36" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="169" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="170">
@@ -4553,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="35" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="166" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="167">
@@ -4580,7 +4581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L17">
-    <cfRule type="cellIs" dxfId="34" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="247" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="248">
@@ -4607,7 +4608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="33" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="163" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="164">
@@ -4634,7 +4635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="32" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="154" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="155">
@@ -4661,7 +4662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="31" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="136" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="137">
@@ -4688,7 +4689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="30" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="115" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="116">
@@ -4715,7 +4716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:L22 K23 J24:K25 K26:K29">
-    <cfRule type="cellIs" dxfId="29" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="712" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="713">
@@ -4742,7 +4743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="28" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="100" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="101">
@@ -4769,7 +4770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="27" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="97" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="98">
@@ -4796,7 +4797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="26" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="94" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="95">
@@ -4823,7 +4824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="91" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="92">
@@ -4850,7 +4851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="24" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="68">
@@ -4877,7 +4878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="65">
@@ -4904,7 +4905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="22" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -4931,7 +4932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="59">
@@ -4958,7 +4959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="56">
@@ -4985,7 +4986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="53">
@@ -5012,7 +5013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="18" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="50">
@@ -5039,7 +5040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="47">
@@ -5066,7 +5067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="16" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1084" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1085">
@@ -5093,7 +5094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="15" priority="1150" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1150" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1151">
@@ -5120,7 +5121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="cellIs" dxfId="14" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1189" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1190">
@@ -5147,7 +5148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="38">
@@ -5174,7 +5175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="35">
@@ -5201,7 +5202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="32">
@@ -5228,7 +5229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="29">
@@ -5255,7 +5256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:I26">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="23">
@@ -5282,7 +5283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="20">
@@ -5309,7 +5310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="17">
@@ -5336,7 +5337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="14">
@@ -5363,7 +5364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="11">
@@ -5390,7 +5391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="8">
@@ -5417,7 +5418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:J28">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="5">
@@ -5444,7 +5445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:I30 K30:L30">
-    <cfRule type="cellIs" dxfId="2" priority="1222" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1222" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1223">
@@ -5471,7 +5472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="1" priority="1228" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1228" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1229">
@@ -5498,7 +5499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:J29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C08700-AC43-41C2-8134-5862E20DD69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD616D09-2D85-4950-8DBD-70091C30C9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="187">
   <si>
     <t>DEX</t>
   </si>
@@ -237,6 +237,465 @@
   </si>
   <si>
     <t>Vampire attack</t>
+  </si>
+  <si>
+    <t>Curve \cite{Redman2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Finance \cite{Malwa2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>APWine</t>
+  </si>
+  <si>
+    <t>Augur</t>
+  </si>
+  <si>
+    <t>EulerBeats</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>Pods Finance</t>
+  </si>
+  <si>
+    <t>GyroScope</t>
+  </si>
+  <si>
+    <t>Gnosis</t>
+  </si>
+  <si>
+    <t>Yield space</t>
+  </si>
+  <si>
+    <t>Notional finance</t>
+  </si>
+  <si>
+    <t>DeFi embedded with AMM</t>
+  </si>
+  <si>
+    <t>dynamic swap fee</t>
+  </si>
+  <si>
+    <t>multi-asset</t>
+  </si>
+  <si>
+    <t>Kyber2021whitepaper</t>
+  </si>
+  <si>
+    <t>asset-pair</t>
+  </si>
+  <si>
+    <t>Andersson2020</t>
+  </si>
+  <si>
+    <t>mooniswap2020whitepaper</t>
+  </si>
+  <si>
+    <t>Mooniswap</t>
+  </si>
+  <si>
+    <t>sushi2020</t>
+  </si>
+  <si>
+    <t>SushiSwap</t>
+  </si>
+  <si>
+    <t>Ethereum, EOS</t>
+  </si>
+  <si>
+    <t>divergence loss insurance</t>
+  </si>
+  <si>
+    <t>Bancor2020</t>
+  </si>
+  <si>
+    <t>Bancor V2.1</t>
+  </si>
+  <si>
+    <t>Bancor V2</t>
+  </si>
+  <si>
+    <t>Hertzog2018</t>
+  </si>
+  <si>
+    <t>Bancor V1</t>
+  </si>
+  <si>
+    <t>Ethereum, BSC</t>
+  </si>
+  <si>
+    <t>single-asset</t>
+  </si>
+  <si>
+    <t>dodo2020whitepaper</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>Balancer V2</t>
+  </si>
+  <si>
+    <t>martinelli2019whitepaper</t>
+  </si>
+  <si>
+    <t>Balancer V1</t>
+  </si>
+  <si>
+    <t>adams2021v3core</t>
+  </si>
+  <si>
+    <t>Uniswap V3</t>
+  </si>
+  <si>
+    <t>Core2020</t>
+  </si>
+  <si>
+    <t>Uniswap V2</t>
+  </si>
+  <si>
+    <t>Adams2018</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>cite</t>
+  </si>
+  <si>
+    <t>AMM add-on features</t>
+  </si>
+  <si>
+    <t>\mathcal{A}</t>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HydraDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polkadot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>various</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum,, Tezos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/2018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/2017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Finance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyber 3.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant-product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant-sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle price component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital concentration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divergenve loss compensation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainnet launch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mStable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various \cite{Mikalauskas2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middleware-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium.finance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwapOfficial2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various \cite{Dzyatkovskii2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V1 \cite{ConsenSys2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SushiSwap \cite{Keoun2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burgerswap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burgerswapwhitepaper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum, Polygon network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>whitepaper for mechanism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block timestamp manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction sequence manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other infrastructure-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infrastructure-layer  attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other middleware-layer attacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backrunning</t>
+  </si>
+  <si>
+    <t>25.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.40m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.70m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>280.00m each month worldwide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12m each month worldwide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4300.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>239.00m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V2\cite{Foxley2021Vampire}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V2 \cite{Wong2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniswap V2\cite{Ong2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burgerswap \cite{Behnke2021Burgerswap}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwap \cite{QuickSwap2021, quickswap2021data}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egorov2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DODO \cite{Behnke2021DODO}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Xia2021a, Xia2021, ampleforth2021home, tmpl2021etherscan, BybitLearn, rug-pull-businessreview, rug-pull-coinmarketcap, MudraManager, Eskandari2020, daian2020flash, Eskandari2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{CryptoMarketPool2020, Huang2019, Antonopoulos2018, ConsenSys, Mense2018, Szalachowski2018}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{obadiaa2019, Eskandari2020}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Saad2019, Greene2018, Perez2020, Mirkin2020, Rembert2021, Ramdas2019, Apostolaki2017}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Popper2016, luu2016making, tsankov2018securify, albert2020taming, uniswap-audit, uniswap2020april, cecchetti2021compositional, DODO2021, huang2019smart, Rodler2019a, das2021resource, Fatima2020, Liu2018, Alkhalifah2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{sayeed2020smart, ramanan2021blockchain, praitheeshan2019security, sun2021mutation, zhang2020smartshield, bunz2020zether, lu2019neucheck}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -250,6 +709,16 @@
         <family val="2"/>
       </rPr>
       <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">harvest2020attack, peckshield2020valuedefi, pirus2020cheesbank, smartcontent2021TWAP, </t>
     </r>
     <r>
       <rPr>
@@ -285,493 +754,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Curve \cite{Redman2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Xia2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium Finance \cite{Malwa2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Zhou2021High-Frequency, Eskandari2020, Daian2019, Angeris2021, Zhou2021A2MM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Züst2021, Dunkelman2010, Zhou2021High-Frequency}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Lo2020UniswapExchange, Dangare2016}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Ethereum</t>
-  </si>
-  <si>
-    <t>APWine</t>
-  </si>
-  <si>
-    <t>Augur</t>
-  </si>
-  <si>
-    <t>EulerBeats</t>
-  </si>
-  <si>
-    <t>UMA</t>
-  </si>
-  <si>
-    <t>Pods Finance</t>
-  </si>
-  <si>
-    <t>GyroScope</t>
-  </si>
-  <si>
-    <t>Gnosis</t>
-  </si>
-  <si>
-    <t>Yield space</t>
-  </si>
-  <si>
-    <t>Notional finance</t>
-  </si>
-  <si>
-    <t>DeFi embedded with AMM</t>
-  </si>
-  <si>
-    <t>dynamic swap fee</t>
-  </si>
-  <si>
-    <t>multi-asset</t>
-  </si>
-  <si>
-    <t>Kyber2021whitepaper</t>
-  </si>
-  <si>
-    <t>asset-pair</t>
-  </si>
-  <si>
-    <t>Andersson2020</t>
-  </si>
-  <si>
-    <t>mooniswap2020whitepaper</t>
-  </si>
-  <si>
-    <t>Mooniswap</t>
-  </si>
-  <si>
-    <t>sushi2020</t>
-  </si>
-  <si>
-    <t>SushiSwap</t>
-  </si>
-  <si>
-    <t>Ethereum, EOS</t>
-  </si>
-  <si>
-    <t>divergence loss insurance</t>
-  </si>
-  <si>
-    <t>Bancor2020</t>
-  </si>
-  <si>
-    <t>Bancor V2.1</t>
-  </si>
-  <si>
-    <t>Bancor V2</t>
-  </si>
-  <si>
-    <t>Hertzog2018</t>
-  </si>
-  <si>
-    <t>Bancor V1</t>
-  </si>
-  <si>
-    <t>Ethereum, BSC</t>
-  </si>
-  <si>
-    <t>single-asset</t>
-  </si>
-  <si>
-    <t>dodo2020whitepaper</t>
+    <t>\cite{frontrunningnews, Zhou2020, Eskandari2020, Daian2019, sandwhichattack2021, EtherDelta, 0xProject, Eskandari2020, Zhou2021High-Frequency, Zhou2021A2MM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Livnev2020, Zhou2021,feng2020application, xie2008monitoring, wang2017skyshield, Zhou2021High-Frequency}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{Zhou2020, Züst2021, Zhou2021High-Frequency}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{jakub2020vampire, dale2020sushiswapvampire, sushi2020, Foxley2021, Lo2020UniswapExchange}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DODO</t>
-  </si>
-  <si>
-    <t>Egorov2019</t>
-  </si>
-  <si>
-    <t>Curve</t>
-  </si>
-  <si>
-    <t>Balancer V2</t>
-  </si>
-  <si>
-    <t>martinelli2019whitepaper</t>
-  </si>
-  <si>
-    <t>Balancer V1</t>
-  </si>
-  <si>
-    <t>adams2021v3core</t>
-  </si>
-  <si>
-    <t>Uniswap V3</t>
-  </si>
-  <si>
-    <t>Core2020</t>
-  </si>
-  <si>
-    <t>Uniswap V2</t>
-  </si>
-  <si>
-    <t>Adams2018</t>
-  </si>
-  <si>
-    <t>Chain</t>
-  </si>
-  <si>
-    <t>cite</t>
-  </si>
-  <si>
-    <t>AMM add-on features</t>
-  </si>
-  <si>
-    <t>\mathcal{A}</t>
-  </si>
-  <si>
-    <t>DEX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HydraDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>---</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polkadot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06/2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>various</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum,, Tezos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11/2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05/2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>09/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06/2017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>08/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03/2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium Finance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool structure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyber 3.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constant-product</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constant-sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle price component</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>capital concentration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>divergenve loss compensation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainnet launch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mStable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Various \cite{Mikalauskas2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time component</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middleware-layer attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium.finance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuickSwap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuickSwapOfficial2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Various \cite{Dzyatkovskii2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V1 \cite{ConsenSys2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SushiSwap \cite{Keoun2020}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burgerswap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burgerswapwhitepaper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum, Polygon network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>whitepaper for mechanism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block timestamp manipulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction sequence manipulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other infrastructure-layer attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infrastructure-layer  attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\cite{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jiang2021, Davidson2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other middleware-layer attacks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backrunning</t>
-  </si>
-  <si>
-    <t>\cite{Zhou2021High-Frequency, Angeris2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.40m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.20m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.70m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>280.00m each month worldwide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12m each month worldwide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4300.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>239.00m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V2\cite{Foxley2021Vampire}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V2 \cite{Wong2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uniswap V2\cite{Ong2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\cite{Fatima2020, Liu2018, Alkhalifah2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burgerswap \cite{Behnke2021Burgerswap}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuickSwap \cite{QuickSwap2021, quickswap2021data}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DODO V2 \cite{Behnke2021DODO}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DODO  \cite{Behnke2021DODO}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -846,16 +845,17 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1006,19 +1006,21 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,15 +1030,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,31 +1047,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,176 +1068,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1722,6 +1534,176 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1742,20 +1724,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L35" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4654A54-1774-274F-8193-5337C1C82680}" name="Table1" displayName="Table1" ref="B5:L35" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B5:L35" xr:uid="{008D2199-0F15-2F4F-A092-430F9EAE67BD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7DD0AFA2-3DC3-7A40-8883-D17ED974E011}" name="DEX" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5A0E83A9-E6F4-5E41-B7C7-1702542DC3BF}" name="cite" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5E73C893-7054-8A4C-9040-09D83072307F}" name="pool structure" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{4466B86D-04DE-40BF-BB78-F5A628D72B8F}" name="constant-product" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7D009CD3-5D78-4748-80BA-2EA2F38E309A}" name="constant-sum" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F30DC0B4-43D5-B44C-B530-B058ED92CD29}" name="oracle price component" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B05FB6D0-D14D-0546-99CE-1E93CAFB4606}" name="capital concentration" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B4C7EAF4-DA52-AD4C-B999-3BE5766272ED}" name="time component" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{EC6E61C9-A980-7A4C-9EA6-3E774C296BFE}" name="divergenve loss compensation" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D18029F6-74CF-7F40-9938-A6D349A14C24}" name="Chain" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{F3CCBA67-7803-C24D-B01B-7491DD2CF112}" name="mainnet launch" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2078,48 +2060,48 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.15234375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.23046875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.23046875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.15234375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-    </row>
-    <row r="5" spans="3:17" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -2166,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
@@ -2307,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
@@ -2401,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
@@ -2448,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
@@ -2495,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
@@ -2542,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -2589,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
@@ -2636,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
@@ -2683,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
@@ -2730,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:17" ht="31" x14ac:dyDescent="0.35">
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -2794,260 +2776,266 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="36.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="49" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="30" customFormat="1" ht="20" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+      <c r="B4" s="44"/>
+      <c r="C4" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" s="29" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+      <c r="B6" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B9" s="44"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B10" s="44"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B11" s="44"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="50" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="44"/>
+      <c r="C12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" s="48" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B13" s="44"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="F13" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="44"/>
+      <c r="C14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B15" s="44"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40" x14ac:dyDescent="0.35">
+      <c r="B16" s="44"/>
+      <c r="C16" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B17" s="44"/>
+      <c r="C17" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="44"/>
+      <c r="C18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="30" t="s">
+    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B19" s="44"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="30" t="s">
+    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
-      <c r="C18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3075,590 +3063,590 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="15.3828125" customWidth="1"/>
+    <col min="5" max="5" width="18.84375" customWidth="1"/>
+    <col min="6" max="6" width="16.23046875" customWidth="1"/>
+    <col min="7" max="7" width="27.15234375" customWidth="1"/>
+    <col min="8" max="8" width="24.84375" customWidth="1"/>
+    <col min="9" max="9" width="22.15234375" customWidth="1"/>
+    <col min="10" max="10" width="25.15234375" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" customWidth="1"/>
+    <col min="12" max="12" width="17.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="C9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="C16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="C18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E20" s="15" t="b">
         <v>1</v>
@@ -3676,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E21" s="15" t="b">
         <v>1</v>
@@ -3709,94 +3697,94 @@
         <v>0</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="15" t="s">
+    </row>
+    <row r="23" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="D24" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E24" s="15" t="b">
         <v>1</v>
@@ -3814,18 +3802,18 @@
         <v>0</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -3836,9 +3824,9 @@
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3851,9 +3839,9 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3864,13 +3852,13 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3883,13 +3871,13 @@
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -3900,13 +3888,13 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -3923,13 +3911,13 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -3940,13 +3928,13 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3957,13 +3945,13 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3974,13 +3962,13 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -3993,9 +3981,9 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -4006,10 +3994,10 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4019,10 +4007,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F26:L35 E6:F16 G7:I16 J16:J18 J7:J14 F20:I21 E17:I19 G6:K6 L8:L11 K20:L21 K7:K19">
-    <cfRule type="cellIs" dxfId="16" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="208" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="203">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4034,7 +4022,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="204">
+    <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4046,10 +4034,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7">
-    <cfRule type="cellIs" dxfId="15" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="193" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="188">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4061,7 +4049,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="189">
+    <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4073,10 +4061,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L13">
-    <cfRule type="cellIs" dxfId="14" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="187" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4088,7 +4076,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="183">
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4100,10 +4088,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="13" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="181" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4115,7 +4103,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4127,10 +4115,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="12" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="175" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4142,7 +4130,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="171">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4154,10 +4142,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="11" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="172" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4169,7 +4157,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4181,10 +4169,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L17">
-    <cfRule type="cellIs" dxfId="10" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="253" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4196,7 +4184,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="249">
+    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4208,10 +4196,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="9" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="121" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4223,7 +4211,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4235,10 +4223,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="cellIs" dxfId="8" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1195" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1190">
+    <cfRule type="dataBar" priority="1196">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4250,7 +4238,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1191">
+    <cfRule type="colorScale" priority="1197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4262,10 +4250,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:I22">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4277,7 +4265,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4289,10 +4277,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4304,7 +4292,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4316,10 +4304,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:J23">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4331,7 +4319,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4343,10 +4331,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:I25 K25:L25">
-    <cfRule type="cellIs" dxfId="4" priority="1222" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1228" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1223">
+    <cfRule type="dataBar" priority="1229">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4358,7 +4346,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1224">
+    <cfRule type="colorScale" priority="1230">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4370,10 +4358,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="3" priority="1228" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1234" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1229">
+    <cfRule type="dataBar" priority="1235">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4385,7 +4373,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1230">
+    <cfRule type="colorScale" priority="1236">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4397,10 +4385,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:J24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4412,7 +4400,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4424,10 +4412,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K24">
-    <cfRule type="cellIs" dxfId="1" priority="1261" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1318" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1262">
+    <cfRule type="dataBar" priority="1319">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4439,7 +4427,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1263">
+    <cfRule type="colorScale" priority="1320">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4451,10 +4439,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L24">
-    <cfRule type="cellIs" dxfId="0" priority="1273" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1324" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1274">
+    <cfRule type="dataBar" priority="1325">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4466,7 +4454,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="1275">
+    <cfRule type="colorScale" priority="1326">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD616D09-2D85-4950-8DBD-70091C30C9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D9354-33EC-4EB3-91C8-F4A4FFE71784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -754,24 +754,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{frontrunningnews, Zhou2020, Eskandari2020, Daian2019, sandwhichattack2021, EtherDelta, 0xProject, Eskandari2020, Zhou2021High-Frequency, Zhou2021A2MM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\cite{Livnev2020, Zhou2021,feng2020application, xie2008monitoring, wang2017skyshield, Zhou2021High-Frequency}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{Zhou2020, Züst2021, Zhou2021High-Frequency}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\cite{jakub2020vampire, dale2020sushiswapvampire, sushi2020, Foxley2021, Lo2020UniswapExchange}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DODO</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\cite{frontrunningnews, Zhou2021A2MM, Eskandari2020, Daian2019, sandwhichattack2021, EtherDelta, 0xProject, Eskandari2020, Zhou2021High-Frequency, Zhou2021A2MM}</t>
+  </si>
+  <si>
+    <t>\cite{Zhou2021A2MM, Züst2021, Zhou2021High-Frequency}</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1030,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,15 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2081,25 +2079,25 @@
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
@@ -2775,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2793,10 +2791,10 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
@@ -2809,7 +2807,7 @@
     </row>
     <row r="3" spans="1:6" s="30" customFormat="1" ht="20" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>153</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -2822,19 +2820,19 @@
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="35" t="s">
         <v>151</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" s="29" customFormat="1" ht="20" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="36" t="s">
         <v>152</v>
       </c>
@@ -2845,13 +2843,13 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.35">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>179</v>
       </c>
       <c r="E6" s="35" t="s">
@@ -2863,7 +2861,7 @@
     </row>
     <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
-      <c r="B7" s="39"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="33" t="s">
         <v>154</v>
       </c>
@@ -2874,13 +2872,13 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="43" t="s">
         <v>181</v>
       </c>
       <c r="E8" s="35" t="s">
@@ -2891,9 +2889,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B9" s="44"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="35" t="s">
         <v>172</v>
       </c>
@@ -2902,9 +2900,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B10" s="44"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="35" t="s">
         <v>171</v>
       </c>
@@ -2913,9 +2911,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B11" s="44"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="35" t="s">
         <v>174</v>
       </c>
@@ -2924,11 +2922,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="44"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="43" t="s">
         <v>175</v>
       </c>
       <c r="E12" s="35" t="s">
@@ -2939,9 +2937,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B13" s="44"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>145</v>
       </c>
@@ -2950,12 +2948,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="44"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>182</v>
+      <c r="D14" s="43" t="s">
+        <v>185</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>136</v>
@@ -2965,9 +2963,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="44"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="35" t="s">
         <v>174</v>
       </c>
@@ -2976,23 +2974,23 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="40" x14ac:dyDescent="0.35">
-      <c r="B16" s="44"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="35" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B17" s="44"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="35" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>143</v>
@@ -3002,12 +3000,12 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="44"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>185</v>
+      <c r="D18" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>169</v>
@@ -3017,9 +3015,9 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B19" s="44"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="35" t="s">
         <v>170</v>
       </c>
@@ -3028,9 +3026,9 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="36" t="s">
         <v>168</v>
       </c>
@@ -3063,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3104,16 +3102,16 @@
       <c r="C4" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
@@ -3362,7 +3360,7 @@
     </row>
     <row r="12" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>87</v>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D9354-33EC-4EB3-91C8-F4A4FFE71784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A3A55-B9D7-4A4E-8A3E-502F3F007FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
   <sheets>
     <sheet name="LitReview" sheetId="1" r:id="rId1"/>
@@ -766,10 +766,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\cite{frontrunningnews, Zhou2021A2MM, Eskandari2020, Daian2019, sandwhichattack2021, EtherDelta, 0xProject, Eskandari2020, Zhou2021High-Frequency, Zhou2021A2MM}</t>
-  </si>
-  <si>
     <t>\cite{Zhou2021A2MM, Züst2021, Zhou2021High-Frequency}</t>
+  </si>
+  <si>
+    <t>\cite{frontrunningnews, Zhou2021A2MM, Daian2019, sandwhichattack2021, EtherDelta, 0xProject, Eskandari2020, Zhou2021High-Frequency, Zhou2021A2MM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2773,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2953,7 +2954,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>136</v>
@@ -2990,7 +2991,7 @@
         <v>53</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>143</v>
@@ -3061,7 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE940E80-B413-2F4C-AA8E-FE20B0E7100E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/assets/tables.xlsx
+++ b/assets/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RA\bondingcurves\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A3A55-B9D7-4A4E-8A3E-502F3F007FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB420EA-4C1A-421E-8AD0-5BEACC913146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{78257B4B-863B-0240-9C5F-4DB116BF817F}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="192">
   <si>
     <t>DEX</t>
   </si>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Uranium Finance \cite{Malwa2021}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -659,10 +655,6 @@
   </si>
   <si>
     <t>Burgerswap \cite{Behnke2021Burgerswap}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuickSwap \cite{QuickSwap2021, quickswap2021data}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -770,6 +762,34 @@
   </si>
   <si>
     <t>\cite{frontrunningnews, Zhou2021A2MM, Daian2019, sandwhichattack2021, EtherDelta, 0xProject, Eskandari2020, Zhou2021High-Frequency, Zhou2021A2MM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSwap \cite{coinnews}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Finance \cite{Malwa2021, Lyanchev2021}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/2021</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1011,8 +1031,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,6 +1039,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,11 +1052,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,6 +1081,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2080,25 +2110,25 @@
     <row r="4" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="3:17" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
@@ -2772,270 +2802,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C3EE4C-B2C3-954E-B787-28F524DF8822}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="36.765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="38"/>
+    <col min="2" max="2" width="33.921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.4609375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="231.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="30" customFormat="1" ht="20" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="40" t="s">
+      <c r="G2" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="38" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+      <c r="B3" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" s="38" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+      <c r="B4" s="46"/>
+      <c r="C4" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" s="38" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+      <c r="B5" s="43"/>
+      <c r="C5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.35">
+      <c r="B6" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.35">
-      <c r="B4" s="41"/>
-      <c r="C4" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-    </row>
-    <row r="5" spans="1:6" s="29" customFormat="1" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B9" s="42"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B10" s="42"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B11" s="42"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B12" s="42"/>
+      <c r="C12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B13" s="42"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="33" t="s">
+      <c r="F13" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B14" s="42"/>
+      <c r="C14" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B16" s="42"/>
+      <c r="C16" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B17" s="42"/>
+      <c r="C17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B18" s="42"/>
+      <c r="C18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="41"/>
-      <c r="C12" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="41"/>
-      <c r="C14" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40" x14ac:dyDescent="0.35">
-      <c r="B16" s="41"/>
-      <c r="C16" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B17" s="41"/>
-      <c r="C17" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="35" t="s">
+      <c r="E18" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41"/>
-      <c r="C18" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="35" t="s">
+      <c r="G18" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="G19" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20" x14ac:dyDescent="0.35">
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.35">
-      <c r="B20" s="42"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>167</v>
-      </c>
+      <c r="G20" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3063,7 +3143,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3083,81 +3163,81 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C4" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+        <v>148</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
       <c r="K5" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="15" t="b">
         <v>1</v>
@@ -3175,24 +3255,24 @@
         <v>0</v>
       </c>
       <c r="J6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L6" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="15" t="b">
         <v>1</v>
@@ -3210,24 +3290,24 @@
         <v>0</v>
       </c>
       <c r="J7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="15" t="b">
         <v>1</v>
@@ -3245,24 +3325,24 @@
         <v>0</v>
       </c>
       <c r="J8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="15" t="b">
         <v>1</v>
@@ -3280,59 +3360,59 @@
         <v>1</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="15" t="b">
         <v>1</v>
@@ -3350,24 +3430,24 @@
         <v>0</v>
       </c>
       <c r="J11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="15" t="b">
         <v>1</v>
@@ -3385,24 +3465,24 @@
         <v>0</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="15" t="b">
         <v>1</v>
@@ -3420,24 +3500,24 @@
         <v>0</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="15" t="b">
         <v>1</v>
@@ -3455,24 +3535,24 @@
         <v>0</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="15" t="b">
         <v>1</v>
@@ -3490,24 +3570,24 @@
         <v>0</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="15" t="b">
         <v>1</v>
@@ -3525,24 +3605,24 @@
         <v>0</v>
       </c>
       <c r="J16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L16" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="15" t="b">
         <v>1</v>
@@ -3560,24 +3640,24 @@
         <v>1</v>
       </c>
       <c r="J17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="L17" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="15" t="b">
         <v>0</v>
@@ -3595,24 +3675,24 @@
         <v>0</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="15" t="b">
         <v>1</v>
@@ -3630,22 +3710,22 @@
         <v>0</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="15" t="b">
         <v>1</v>
@@ -3663,22 +3743,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="L20" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="15" t="b">
         <v>1</v>
@@ -3696,24 +3776,24 @@
         <v>0</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="15" t="b">
         <v>1</v>
@@ -3731,59 +3811,59 @@
         <v>0</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="D24" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="15" t="b">
         <v>1</v>
@@ -3801,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -3825,7 +3905,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3840,7 +3920,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3851,13 +3931,13 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3870,13 +3950,13 @@
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -3887,13 +3967,13 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="15"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -3910,13 +3990,13 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L30" s="15"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -3927,13 +4007,13 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3944,13 +4024,13 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3961,13 +4041,13 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -3982,7 +4062,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3993,10 +4073,10 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
